--- a/downloads/kachmapharmacyturaiinventory.xlsx
+++ b/downloads/kachmapharmacyturaiinventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malachi.egbugha\Documents\project\hmsbackend\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BBAE01-A3BA-480E-9B63-56BEB510B269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF810453-D4D7-4427-8CEB-D0B36F128A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E597F3E0-C64E-419C-BCB0-AD8BE7755CA4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="stocklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stocklist!$G$1:$G$3216</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stocklist!$G$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3070,7 +3070,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3127,12 +3127,6 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3156,7 +3150,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3173,11 +3167,9 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3516,8 +3508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8681CA4-D105-4AE6-9BEC-EF5B3BEE5B68}">
   <dimension ref="A1:H501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3577,10 +3569,10 @@
       <c r="F2" s="4">
         <v>10000</v>
       </c>
-      <c r="G2" s="14">
-        <v>160</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="G2">
+        <v>1600</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3603,10 +3595,10 @@
       <c r="F3" s="4">
         <v>10000</v>
       </c>
-      <c r="G3" s="14">
-        <v>200</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="G3">
+        <v>2000</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3629,10 +3621,10 @@
       <c r="F4" s="4">
         <v>10000</v>
       </c>
-      <c r="G4" s="14">
-        <v>7</v>
-      </c>
-      <c r="H4" s="15" t="s">
+      <c r="G4">
+        <v>70</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3655,10 +3647,10 @@
       <c r="F5" s="4">
         <v>10000</v>
       </c>
-      <c r="G5" s="14">
-        <v>20</v>
-      </c>
-      <c r="H5" s="15" t="s">
+      <c r="G5">
+        <v>200</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3681,10 +3673,10 @@
       <c r="F6" s="4">
         <v>10000</v>
       </c>
-      <c r="G6" s="14">
-        <v>20</v>
-      </c>
-      <c r="H6" s="15" t="s">
+      <c r="G6">
+        <v>200</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3707,10 +3699,10 @@
       <c r="F7" s="4">
         <v>10000</v>
       </c>
-      <c r="G7" s="14">
-        <v>84</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="G7">
+        <v>840</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3733,10 +3725,10 @@
       <c r="F8" s="4">
         <v>10000</v>
       </c>
-      <c r="G8" s="14">
-        <v>20</v>
-      </c>
-      <c r="H8" s="15" t="s">
+      <c r="G8">
+        <v>200</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3759,10 +3751,10 @@
       <c r="F9" s="4">
         <v>10000</v>
       </c>
-      <c r="G9" s="14">
-        <v>10</v>
-      </c>
-      <c r="H9" s="15" t="s">
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3785,10 +3777,10 @@
       <c r="F10" s="4">
         <v>10000</v>
       </c>
-      <c r="G10" s="14">
-        <v>20</v>
-      </c>
-      <c r="H10" s="15" t="s">
+      <c r="G10">
+        <v>200</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3811,10 +3803,10 @@
       <c r="F11" s="4">
         <v>10000</v>
       </c>
-      <c r="G11" s="14">
-        <v>20</v>
-      </c>
-      <c r="H11" s="15" t="s">
+      <c r="G11">
+        <v>200</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3837,10 +3829,10 @@
       <c r="F12" s="4">
         <v>10000</v>
       </c>
-      <c r="G12" s="14">
-        <v>10</v>
-      </c>
-      <c r="H12" s="15" t="s">
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3863,10 +3855,10 @@
       <c r="F13" s="4">
         <v>10000</v>
       </c>
-      <c r="G13" s="14">
-        <v>10</v>
-      </c>
-      <c r="H13" s="15" t="s">
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3889,10 +3881,10 @@
       <c r="F14" s="4">
         <v>10000</v>
       </c>
-      <c r="G14" s="14">
-        <v>150</v>
-      </c>
-      <c r="H14" s="15" t="s">
+      <c r="G14">
+        <v>1500</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3915,10 +3907,10 @@
       <c r="F15" s="4">
         <v>10000</v>
       </c>
-      <c r="G15" s="14">
-        <v>5</v>
-      </c>
-      <c r="H15" s="15" t="s">
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3941,10 +3933,10 @@
       <c r="F16" s="4">
         <v>10000</v>
       </c>
-      <c r="G16" s="14">
-        <v>20</v>
-      </c>
-      <c r="H16" s="15" t="s">
+      <c r="G16">
+        <v>200</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3967,10 +3959,10 @@
       <c r="F17" s="4">
         <v>10000</v>
       </c>
-      <c r="G17" s="14">
-        <v>40</v>
-      </c>
-      <c r="H17" s="15" t="s">
+      <c r="G17">
+        <v>400</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3993,10 +3985,10 @@
       <c r="F18" s="4">
         <v>10000</v>
       </c>
-      <c r="G18" s="14">
-        <v>48</v>
-      </c>
-      <c r="H18" s="15" t="s">
+      <c r="G18">
+        <v>480</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4019,10 +4011,10 @@
       <c r="F19" s="4">
         <v>10000</v>
       </c>
-      <c r="G19" s="14">
-        <v>80</v>
-      </c>
-      <c r="H19" s="15" t="s">
+      <c r="G19">
+        <v>800</v>
+      </c>
+      <c r="H19" s="14" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4045,10 +4037,10 @@
       <c r="F20" s="4">
         <v>10000</v>
       </c>
-      <c r="G20" s="14">
-        <v>16</v>
-      </c>
-      <c r="H20" s="15" t="s">
+      <c r="G20">
+        <v>160</v>
+      </c>
+      <c r="H20" s="14" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4071,10 +4063,10 @@
       <c r="F21" s="4">
         <v>10000</v>
       </c>
-      <c r="G21" s="14">
-        <v>40</v>
-      </c>
-      <c r="H21" s="15" t="s">
+      <c r="G21">
+        <v>400</v>
+      </c>
+      <c r="H21" s="14" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4097,10 +4089,10 @@
       <c r="F22" s="4">
         <v>10000</v>
       </c>
-      <c r="G22" s="14">
-        <v>64</v>
-      </c>
-      <c r="H22" s="15" t="s">
+      <c r="G22">
+        <v>640</v>
+      </c>
+      <c r="H22" s="14" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4123,10 +4115,10 @@
       <c r="F23" s="4">
         <v>10000</v>
       </c>
-      <c r="G23" s="14">
-        <v>70</v>
-      </c>
-      <c r="H23" s="15" t="s">
+      <c r="G23">
+        <v>700</v>
+      </c>
+      <c r="H23" s="14" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4149,10 +4141,10 @@
       <c r="F24" s="4">
         <v>10000</v>
       </c>
-      <c r="G24" s="16">
-        <v>2300</v>
-      </c>
-      <c r="H24" s="15" t="s">
+      <c r="G24">
+        <v>23000</v>
+      </c>
+      <c r="H24" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4175,10 +4167,10 @@
       <c r="F25" s="4">
         <v>10000</v>
       </c>
-      <c r="G25" s="16">
-        <v>1800</v>
-      </c>
-      <c r="H25" s="15" t="s">
+      <c r="G25">
+        <v>18000</v>
+      </c>
+      <c r="H25" s="14" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4201,10 +4193,10 @@
       <c r="F26" s="4">
         <v>10000</v>
       </c>
-      <c r="G26" s="14">
-        <v>250</v>
-      </c>
-      <c r="H26" s="15" t="s">
+      <c r="G26">
+        <v>2500</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4227,10 +4219,10 @@
       <c r="F27" s="4">
         <v>10000</v>
       </c>
-      <c r="G27" s="14">
-        <v>70</v>
-      </c>
-      <c r="H27" s="15" t="s">
+      <c r="G27">
+        <v>700</v>
+      </c>
+      <c r="H27" s="14" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4253,10 +4245,10 @@
       <c r="F28" s="4">
         <v>10000</v>
       </c>
-      <c r="G28" s="14">
-        <v>80</v>
-      </c>
-      <c r="H28" s="15" t="s">
+      <c r="G28">
+        <v>800</v>
+      </c>
+      <c r="H28" s="14" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4279,10 +4271,10 @@
       <c r="F29" s="4">
         <v>10000</v>
       </c>
-      <c r="G29" s="14">
-        <v>37</v>
-      </c>
-      <c r="H29" s="15" t="s">
+      <c r="G29">
+        <v>370</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4305,10 +4297,10 @@
       <c r="F30" s="4">
         <v>10000</v>
       </c>
-      <c r="G30" s="16">
-        <v>2500</v>
-      </c>
-      <c r="H30" s="15" t="s">
+      <c r="G30">
+        <v>25000</v>
+      </c>
+      <c r="H30" s="14" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4331,10 +4323,10 @@
       <c r="F31" s="4">
         <v>10000</v>
       </c>
-      <c r="G31" s="14">
-        <v>1</v>
-      </c>
-      <c r="H31" s="15" t="s">
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31" s="14" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4357,10 +4349,10 @@
       <c r="F32" s="4">
         <v>10000</v>
       </c>
-      <c r="G32" s="14">
-        <v>15</v>
-      </c>
-      <c r="H32" s="15" t="s">
+      <c r="G32">
+        <v>150</v>
+      </c>
+      <c r="H32" s="14" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4383,10 +4375,10 @@
       <c r="F33" s="4">
         <v>10000</v>
       </c>
-      <c r="G33" s="14">
-        <v>80</v>
-      </c>
-      <c r="H33" s="15" t="s">
+      <c r="G33">
+        <v>800</v>
+      </c>
+      <c r="H33" s="14" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4409,10 +4401,10 @@
       <c r="F34" s="4">
         <v>10000</v>
       </c>
-      <c r="G34" s="14">
-        <v>40</v>
-      </c>
-      <c r="H34" s="15" t="s">
+      <c r="G34">
+        <v>400</v>
+      </c>
+      <c r="H34" s="14" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4435,10 +4427,10 @@
       <c r="F35" s="4">
         <v>10000</v>
       </c>
-      <c r="G35" s="14">
-        <v>10</v>
-      </c>
-      <c r="H35" s="15" t="s">
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35" s="14" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4461,10 +4453,10 @@
       <c r="F36" s="4">
         <v>10000</v>
       </c>
-      <c r="G36" s="14">
-        <v>10</v>
-      </c>
-      <c r="H36" s="15" t="s">
+      <c r="G36">
+        <v>100</v>
+      </c>
+      <c r="H36" s="14" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4487,10 +4479,10 @@
       <c r="F37" s="4">
         <v>10000</v>
       </c>
-      <c r="G37" s="14">
-        <v>200</v>
-      </c>
-      <c r="H37" s="15" t="s">
+      <c r="G37">
+        <v>2000</v>
+      </c>
+      <c r="H37" s="14" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4513,10 +4505,10 @@
       <c r="F38" s="4">
         <v>10000</v>
       </c>
-      <c r="G38" s="14">
-        <v>100</v>
-      </c>
-      <c r="H38" s="15" t="s">
+      <c r="G38">
+        <v>1000</v>
+      </c>
+      <c r="H38" s="14" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4539,10 +4531,10 @@
       <c r="F39" s="4">
         <v>10000</v>
       </c>
-      <c r="G39" s="16">
-        <v>1500</v>
-      </c>
-      <c r="H39" s="15" t="s">
+      <c r="G39">
+        <v>15000</v>
+      </c>
+      <c r="H39" s="14" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4565,10 +4557,10 @@
       <c r="F40" s="4">
         <v>10000</v>
       </c>
-      <c r="G40" s="14">
-        <v>30</v>
-      </c>
-      <c r="H40" s="15" t="s">
+      <c r="G40">
+        <v>300</v>
+      </c>
+      <c r="H40" s="14" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4591,10 +4583,10 @@
       <c r="F41" s="4">
         <v>10000</v>
       </c>
-      <c r="G41" s="14">
-        <v>50</v>
-      </c>
-      <c r="H41" s="15" t="s">
+      <c r="G41">
+        <v>500</v>
+      </c>
+      <c r="H41" s="14" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4617,10 +4609,10 @@
       <c r="F42" s="4">
         <v>10000</v>
       </c>
-      <c r="G42" s="14">
-        <v>4</v>
-      </c>
-      <c r="H42" s="15" t="s">
+      <c r="G42">
+        <v>40</v>
+      </c>
+      <c r="H42" s="14" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4643,10 +4635,10 @@
       <c r="F43" s="4">
         <v>10000</v>
       </c>
-      <c r="G43" s="14">
-        <v>30</v>
-      </c>
-      <c r="H43" s="15" t="s">
+      <c r="G43">
+        <v>300</v>
+      </c>
+      <c r="H43" s="14" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4669,10 +4661,10 @@
       <c r="F44" s="4">
         <v>10000</v>
       </c>
-      <c r="G44" s="14">
-        <v>70</v>
-      </c>
-      <c r="H44" s="15" t="s">
+      <c r="G44">
+        <v>700</v>
+      </c>
+      <c r="H44" s="14" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4695,10 +4687,10 @@
       <c r="F45" s="4">
         <v>10000</v>
       </c>
-      <c r="G45" s="14">
-        <v>50</v>
-      </c>
-      <c r="H45" s="15" t="s">
+      <c r="G45">
+        <v>500</v>
+      </c>
+      <c r="H45" s="14" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4721,10 +4713,10 @@
       <c r="F46" s="4">
         <v>10000</v>
       </c>
-      <c r="G46" s="14">
-        <v>134</v>
-      </c>
-      <c r="H46" s="15" t="s">
+      <c r="G46">
+        <v>1340</v>
+      </c>
+      <c r="H46" s="14" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4747,10 +4739,10 @@
       <c r="F47" s="4">
         <v>10000</v>
       </c>
-      <c r="G47" s="14">
-        <v>83</v>
-      </c>
-      <c r="H47" s="15" t="s">
+      <c r="G47">
+        <v>830</v>
+      </c>
+      <c r="H47" s="14" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4773,10 +4765,10 @@
       <c r="F48" s="4">
         <v>10000</v>
       </c>
-      <c r="G48" s="14">
-        <v>50</v>
-      </c>
-      <c r="H48" s="15" t="s">
+      <c r="G48">
+        <v>500</v>
+      </c>
+      <c r="H48" s="14" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4799,10 +4791,10 @@
       <c r="F49" s="4">
         <v>10000</v>
       </c>
-      <c r="G49" s="14">
-        <v>100</v>
-      </c>
-      <c r="H49" s="15" t="s">
+      <c r="G49">
+        <v>1000</v>
+      </c>
+      <c r="H49" s="14" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4825,10 +4817,10 @@
       <c r="F50" s="4">
         <v>10000</v>
       </c>
-      <c r="G50" s="14">
-        <v>90</v>
-      </c>
-      <c r="H50" s="15" t="s">
+      <c r="G50">
+        <v>900</v>
+      </c>
+      <c r="H50" s="14" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4851,10 +4843,10 @@
       <c r="F51" s="4">
         <v>10000</v>
       </c>
-      <c r="G51" s="14">
-        <v>20</v>
-      </c>
-      <c r="H51" s="15" t="s">
+      <c r="G51">
+        <v>200</v>
+      </c>
+      <c r="H51" s="14" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4877,10 +4869,10 @@
       <c r="F52" s="4">
         <v>10000</v>
       </c>
-      <c r="G52" s="14">
-        <v>17</v>
-      </c>
-      <c r="H52" s="15" t="s">
+      <c r="G52">
+        <v>170</v>
+      </c>
+      <c r="H52" s="14" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4903,10 +4895,10 @@
       <c r="F53" s="4">
         <v>10000</v>
       </c>
-      <c r="G53" s="14">
-        <v>185</v>
-      </c>
-      <c r="H53" s="15" t="s">
+      <c r="G53">
+        <v>1850</v>
+      </c>
+      <c r="H53" s="14" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4929,10 +4921,10 @@
       <c r="F54" s="4">
         <v>10000</v>
       </c>
-      <c r="G54" s="14">
-        <v>25</v>
-      </c>
-      <c r="H54" s="15" t="s">
+      <c r="G54">
+        <v>250</v>
+      </c>
+      <c r="H54" s="14" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4955,10 +4947,10 @@
       <c r="F55" s="4">
         <v>10000</v>
       </c>
-      <c r="G55" s="14">
-        <v>70</v>
-      </c>
-      <c r="H55" s="15" t="s">
+      <c r="G55">
+        <v>700</v>
+      </c>
+      <c r="H55" s="14" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4981,10 +4973,10 @@
       <c r="F56" s="4">
         <v>10000</v>
       </c>
-      <c r="G56" s="14">
-        <v>100</v>
-      </c>
-      <c r="H56" s="15" t="s">
+      <c r="G56">
+        <v>1000</v>
+      </c>
+      <c r="H56" s="14" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5007,10 +4999,10 @@
       <c r="F57" s="4">
         <v>10000</v>
       </c>
-      <c r="G57" s="14">
-        <v>110</v>
-      </c>
-      <c r="H57" s="15" t="s">
+      <c r="G57">
+        <v>1100</v>
+      </c>
+      <c r="H57" s="14" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5033,10 +5025,10 @@
       <c r="F58" s="4">
         <v>10000</v>
       </c>
-      <c r="G58" s="14">
-        <v>350</v>
-      </c>
-      <c r="H58" s="15" t="s">
+      <c r="G58">
+        <v>3500</v>
+      </c>
+      <c r="H58" s="14" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5059,10 +5051,10 @@
       <c r="F59" s="4">
         <v>10000</v>
       </c>
-      <c r="G59" s="14">
-        <v>500</v>
-      </c>
-      <c r="H59" s="15" t="s">
+      <c r="G59">
+        <v>5000</v>
+      </c>
+      <c r="H59" s="14" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5085,10 +5077,10 @@
       <c r="F60" s="4">
         <v>10000</v>
       </c>
-      <c r="G60" s="14">
-        <v>61</v>
-      </c>
-      <c r="H60" s="15" t="s">
+      <c r="G60">
+        <v>610</v>
+      </c>
+      <c r="H60" s="14" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5111,10 +5103,10 @@
       <c r="F61" s="4">
         <v>10000</v>
       </c>
-      <c r="G61" s="14">
-        <v>61</v>
-      </c>
-      <c r="H61" s="15" t="s">
+      <c r="G61">
+        <v>610</v>
+      </c>
+      <c r="H61" s="14" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5137,10 +5129,10 @@
       <c r="F62" s="4">
         <v>10000</v>
       </c>
-      <c r="G62" s="14">
-        <v>70</v>
-      </c>
-      <c r="H62" s="15" t="s">
+      <c r="G62">
+        <v>700</v>
+      </c>
+      <c r="H62" s="14" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5163,10 +5155,10 @@
       <c r="F63" s="4">
         <v>10000</v>
       </c>
-      <c r="G63" s="14">
-        <v>56</v>
-      </c>
-      <c r="H63" s="15" t="s">
+      <c r="G63">
+        <v>560</v>
+      </c>
+      <c r="H63" s="14" t="s">
         <v>234</v>
       </c>
     </row>
@@ -5189,10 +5181,10 @@
       <c r="F64" s="4">
         <v>10000</v>
       </c>
-      <c r="G64" s="14">
-        <v>56</v>
-      </c>
-      <c r="H64" s="15" t="s">
+      <c r="G64">
+        <v>560</v>
+      </c>
+      <c r="H64" s="14" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5215,10 +5207,10 @@
       <c r="F65" s="4">
         <v>10000</v>
       </c>
-      <c r="G65" s="14">
-        <v>56</v>
-      </c>
-      <c r="H65" s="15" t="s">
+      <c r="G65">
+        <v>560</v>
+      </c>
+      <c r="H65" s="14" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5241,10 +5233,10 @@
       <c r="F66" s="4">
         <v>10000</v>
       </c>
-      <c r="G66" s="14">
-        <v>56</v>
-      </c>
-      <c r="H66" s="15" t="s">
+      <c r="G66">
+        <v>560</v>
+      </c>
+      <c r="H66" s="14" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5267,10 +5259,10 @@
       <c r="F67" s="4">
         <v>10000</v>
       </c>
-      <c r="G67" s="14">
-        <v>56</v>
-      </c>
-      <c r="H67" s="15" t="s">
+      <c r="G67">
+        <v>560</v>
+      </c>
+      <c r="H67" s="14" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5293,10 +5285,10 @@
       <c r="F68" s="4">
         <v>10000</v>
       </c>
-      <c r="G68" s="14">
-        <v>70</v>
-      </c>
-      <c r="H68" s="15" t="s">
+      <c r="G68">
+        <v>700</v>
+      </c>
+      <c r="H68" s="14" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5319,10 +5311,10 @@
       <c r="F69" s="4">
         <v>10000</v>
       </c>
-      <c r="G69" s="14">
-        <v>180</v>
-      </c>
-      <c r="H69" s="15" t="s">
+      <c r="G69">
+        <v>1800</v>
+      </c>
+      <c r="H69" s="14" t="s">
         <v>240</v>
       </c>
     </row>
@@ -5345,10 +5337,10 @@
       <c r="F70" s="4">
         <v>10000</v>
       </c>
-      <c r="G70" s="14">
-        <v>25</v>
-      </c>
-      <c r="H70" s="15" t="s">
+      <c r="G70">
+        <v>250</v>
+      </c>
+      <c r="H70" s="14" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5371,10 +5363,10 @@
       <c r="F71" s="4">
         <v>10000</v>
       </c>
-      <c r="G71" s="14">
-        <v>10</v>
-      </c>
-      <c r="H71" s="15" t="s">
+      <c r="G71">
+        <v>100</v>
+      </c>
+      <c r="H71" s="14" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5397,10 +5389,10 @@
       <c r="F72" s="4">
         <v>10000</v>
       </c>
-      <c r="G72" s="14">
-        <v>20</v>
-      </c>
-      <c r="H72" s="15" t="s">
+      <c r="G72">
+        <v>200</v>
+      </c>
+      <c r="H72" s="14" t="s">
         <v>243</v>
       </c>
     </row>
@@ -5423,10 +5415,10 @@
       <c r="F73" s="4">
         <v>10000</v>
       </c>
-      <c r="G73" s="14">
-        <v>10</v>
-      </c>
-      <c r="H73" s="15" t="s">
+      <c r="G73">
+        <v>100</v>
+      </c>
+      <c r="H73" s="14" t="s">
         <v>244</v>
       </c>
     </row>
@@ -5449,10 +5441,10 @@
       <c r="F74" s="4">
         <v>10000</v>
       </c>
-      <c r="G74" s="14">
-        <v>62</v>
-      </c>
-      <c r="H74" s="15" t="s">
+      <c r="G74">
+        <v>620</v>
+      </c>
+      <c r="H74" s="14" t="s">
         <v>245</v>
       </c>
     </row>
@@ -5475,10 +5467,10 @@
       <c r="F75" s="4">
         <v>10000</v>
       </c>
-      <c r="G75" s="14">
+      <c r="G75">
         <v>0</v>
       </c>
-      <c r="H75" s="15" t="s">
+      <c r="H75" s="14" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5501,10 +5493,10 @@
       <c r="F76" s="4">
         <v>10000</v>
       </c>
-      <c r="G76" s="14">
-        <v>50</v>
-      </c>
-      <c r="H76" s="15" t="s">
+      <c r="G76">
+        <v>500</v>
+      </c>
+      <c r="H76" s="14" t="s">
         <v>247</v>
       </c>
     </row>
@@ -5527,10 +5519,10 @@
       <c r="F77" s="4">
         <v>10000</v>
       </c>
-      <c r="G77" s="14">
-        <v>180</v>
-      </c>
-      <c r="H77" s="15" t="s">
+      <c r="G77">
+        <v>1800</v>
+      </c>
+      <c r="H77" s="14" t="s">
         <v>248</v>
       </c>
     </row>
@@ -5553,10 +5545,10 @@
       <c r="F78" s="4">
         <v>10000</v>
       </c>
-      <c r="G78" s="14">
-        <v>52</v>
-      </c>
-      <c r="H78" s="15" t="s">
+      <c r="G78">
+        <v>520</v>
+      </c>
+      <c r="H78" s="14" t="s">
         <v>249</v>
       </c>
     </row>
@@ -5579,10 +5571,10 @@
       <c r="F79" s="4">
         <v>10000</v>
       </c>
-      <c r="G79" s="16">
-        <v>3900</v>
-      </c>
-      <c r="H79" s="15" t="s">
+      <c r="G79">
+        <v>39000</v>
+      </c>
+      <c r="H79" s="14" t="s">
         <v>250</v>
       </c>
     </row>
@@ -5605,10 +5597,10 @@
       <c r="F80" s="4">
         <v>10000</v>
       </c>
-      <c r="G80" s="16">
-        <v>1000</v>
-      </c>
-      <c r="H80" s="15" t="s">
+      <c r="G80">
+        <v>10000</v>
+      </c>
+      <c r="H80" s="14" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5631,10 +5623,10 @@
       <c r="F81" s="4">
         <v>10000</v>
       </c>
-      <c r="G81" s="14">
-        <v>100</v>
-      </c>
-      <c r="H81" s="15" t="s">
+      <c r="G81">
+        <v>1000</v>
+      </c>
+      <c r="H81" s="14" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5657,10 +5649,10 @@
       <c r="F82" s="4">
         <v>10000</v>
       </c>
-      <c r="G82" s="14">
-        <v>100</v>
-      </c>
-      <c r="H82" s="15" t="s">
+      <c r="G82">
+        <v>1000</v>
+      </c>
+      <c r="H82" s="14" t="s">
         <v>253</v>
       </c>
     </row>
@@ -5683,10 +5675,10 @@
       <c r="F83" s="4">
         <v>10000</v>
       </c>
-      <c r="G83" s="14">
-        <v>20</v>
-      </c>
-      <c r="H83" s="15" t="s">
+      <c r="G83">
+        <v>200</v>
+      </c>
+      <c r="H83" s="14" t="s">
         <v>254</v>
       </c>
     </row>
@@ -5709,10 +5701,10 @@
       <c r="F84" s="4">
         <v>10000</v>
       </c>
-      <c r="G84" s="14">
-        <v>79</v>
-      </c>
-      <c r="H84" s="15" t="s">
+      <c r="G84">
+        <v>790</v>
+      </c>
+      <c r="H84" s="14" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5735,10 +5727,10 @@
       <c r="F85" s="4">
         <v>10000</v>
       </c>
-      <c r="G85" s="14">
-        <v>50</v>
-      </c>
-      <c r="H85" s="15" t="s">
+      <c r="G85">
+        <v>500</v>
+      </c>
+      <c r="H85" s="14" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5761,10 +5753,10 @@
       <c r="F86" s="4">
         <v>10000</v>
       </c>
-      <c r="G86" s="14">
-        <v>520</v>
-      </c>
-      <c r="H86" s="15" t="s">
+      <c r="G86">
+        <v>5200</v>
+      </c>
+      <c r="H86" s="14" t="s">
         <v>257</v>
       </c>
     </row>
@@ -5787,10 +5779,10 @@
       <c r="F87" s="4">
         <v>10000</v>
       </c>
-      <c r="G87" s="14">
-        <v>40</v>
-      </c>
-      <c r="H87" s="15" t="s">
+      <c r="G87">
+        <v>400</v>
+      </c>
+      <c r="H87" s="14" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5813,10 +5805,10 @@
       <c r="F88" s="4">
         <v>10000</v>
       </c>
-      <c r="G88" s="14">
-        <v>60</v>
-      </c>
-      <c r="H88" s="15" t="s">
+      <c r="G88">
+        <v>600</v>
+      </c>
+      <c r="H88" s="14" t="s">
         <v>259</v>
       </c>
     </row>
@@ -5839,10 +5831,10 @@
       <c r="F89" s="4">
         <v>10000</v>
       </c>
-      <c r="G89" s="14">
-        <v>70</v>
-      </c>
-      <c r="H89" s="15" t="s">
+      <c r="G89">
+        <v>700</v>
+      </c>
+      <c r="H89" s="14" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5865,10 +5857,10 @@
       <c r="F90" s="4">
         <v>10000</v>
       </c>
-      <c r="G90" s="14">
-        <v>45</v>
-      </c>
-      <c r="H90" s="15" t="s">
+      <c r="G90">
+        <v>450</v>
+      </c>
+      <c r="H90" s="14" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5891,10 +5883,10 @@
       <c r="F91" s="4">
         <v>10000</v>
       </c>
-      <c r="G91" s="14">
-        <v>20</v>
-      </c>
-      <c r="H91" s="15" t="s">
+      <c r="G91">
+        <v>200</v>
+      </c>
+      <c r="H91" s="14" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5917,10 +5909,10 @@
       <c r="F92" s="4">
         <v>10000</v>
       </c>
-      <c r="G92" s="14">
-        <v>10</v>
-      </c>
-      <c r="H92" s="15" t="s">
+      <c r="G92">
+        <v>100</v>
+      </c>
+      <c r="H92" s="14" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5943,10 +5935,10 @@
       <c r="F93" s="4">
         <v>10000</v>
       </c>
-      <c r="G93" s="16">
-        <v>1450</v>
-      </c>
-      <c r="H93" s="15" t="s">
+      <c r="G93">
+        <v>14500</v>
+      </c>
+      <c r="H93" s="14" t="s">
         <v>264</v>
       </c>
     </row>
@@ -5969,10 +5961,10 @@
       <c r="F94" s="4">
         <v>10000</v>
       </c>
-      <c r="G94" s="16">
-        <v>2750</v>
-      </c>
-      <c r="H94" s="15" t="s">
+      <c r="G94">
+        <v>27500</v>
+      </c>
+      <c r="H94" s="14" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5995,10 +5987,10 @@
       <c r="F95" s="4">
         <v>10000</v>
       </c>
-      <c r="G95" s="14">
-        <v>27</v>
-      </c>
-      <c r="H95" s="15" t="s">
+      <c r="G95">
+        <v>270</v>
+      </c>
+      <c r="H95" s="14" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6021,10 +6013,10 @@
       <c r="F96" s="4">
         <v>10000</v>
       </c>
-      <c r="G96" s="14">
-        <v>20</v>
-      </c>
-      <c r="H96" s="15" t="s">
+      <c r="G96">
+        <v>200</v>
+      </c>
+      <c r="H96" s="14" t="s">
         <v>267</v>
       </c>
     </row>
@@ -6047,10 +6039,10 @@
       <c r="F97" s="4">
         <v>10000</v>
       </c>
-      <c r="G97" s="14">
-        <v>20</v>
-      </c>
-      <c r="H97" s="15" t="s">
+      <c r="G97">
+        <v>200</v>
+      </c>
+      <c r="H97" s="14" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6073,10 +6065,10 @@
       <c r="F98" s="4">
         <v>10000</v>
       </c>
-      <c r="G98" s="14">
-        <v>30</v>
-      </c>
-      <c r="H98" s="15" t="s">
+      <c r="G98">
+        <v>300</v>
+      </c>
+      <c r="H98" s="14" t="s">
         <v>269</v>
       </c>
     </row>
@@ -6099,10 +6091,10 @@
       <c r="F99" s="4">
         <v>10000</v>
       </c>
-      <c r="G99" s="16">
-        <v>1300</v>
-      </c>
-      <c r="H99" s="15" t="s">
+      <c r="G99">
+        <v>13000</v>
+      </c>
+      <c r="H99" s="14" t="s">
         <v>270</v>
       </c>
     </row>
@@ -6125,10 +6117,10 @@
       <c r="F100" s="4">
         <v>10000</v>
       </c>
-      <c r="G100" s="16">
-        <v>2100</v>
-      </c>
-      <c r="H100" s="15" t="s">
+      <c r="G100">
+        <v>21000</v>
+      </c>
+      <c r="H100" s="14" t="s">
         <v>271</v>
       </c>
     </row>
@@ -6151,10 +6143,10 @@
       <c r="F101" s="4">
         <v>10000</v>
       </c>
-      <c r="G101" s="16">
-        <v>2100</v>
-      </c>
-      <c r="H101" s="15" t="s">
+      <c r="G101">
+        <v>21000</v>
+      </c>
+      <c r="H101" s="14" t="s">
         <v>272</v>
       </c>
     </row>
@@ -6177,10 +6169,10 @@
       <c r="F102" s="4">
         <v>10000</v>
       </c>
-      <c r="G102" s="16">
-        <v>2100</v>
-      </c>
-      <c r="H102" s="15" t="s">
+      <c r="G102">
+        <v>21000</v>
+      </c>
+      <c r="H102" s="14" t="s">
         <v>273</v>
       </c>
     </row>
@@ -6203,10 +6195,10 @@
       <c r="F103" s="4">
         <v>10000</v>
       </c>
-      <c r="G103" s="16">
-        <v>2100</v>
-      </c>
-      <c r="H103" s="15" t="s">
+      <c r="G103">
+        <v>21000</v>
+      </c>
+      <c r="H103" s="14" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6229,10 +6221,10 @@
       <c r="F104" s="4">
         <v>10000</v>
       </c>
-      <c r="G104" s="16">
-        <v>2100</v>
-      </c>
-      <c r="H104" s="15" t="s">
+      <c r="G104">
+        <v>21000</v>
+      </c>
+      <c r="H104" s="14" t="s">
         <v>275</v>
       </c>
     </row>
@@ -6255,10 +6247,10 @@
       <c r="F105" s="4">
         <v>10000</v>
       </c>
-      <c r="G105" s="16">
-        <v>2100</v>
-      </c>
-      <c r="H105" s="15" t="s">
+      <c r="G105">
+        <v>21000</v>
+      </c>
+      <c r="H105" s="14" t="s">
         <v>276</v>
       </c>
     </row>
@@ -6281,10 +6273,10 @@
       <c r="F106" s="4">
         <v>10000</v>
       </c>
-      <c r="G106" s="16">
-        <v>2100</v>
-      </c>
-      <c r="H106" s="15" t="s">
+      <c r="G106">
+        <v>21000</v>
+      </c>
+      <c r="H106" s="14" t="s">
         <v>277</v>
       </c>
     </row>
@@ -6307,10 +6299,10 @@
       <c r="F107" s="4">
         <v>10000</v>
       </c>
-      <c r="G107" s="16">
-        <v>2100</v>
-      </c>
-      <c r="H107" s="15" t="s">
+      <c r="G107">
+        <v>21000</v>
+      </c>
+      <c r="H107" s="14" t="s">
         <v>278</v>
       </c>
     </row>
@@ -6333,10 +6325,10 @@
       <c r="F108" s="4">
         <v>10000</v>
       </c>
-      <c r="G108" s="16">
-        <v>4500</v>
-      </c>
-      <c r="H108" s="15" t="s">
+      <c r="G108">
+        <v>45000</v>
+      </c>
+      <c r="H108" s="14" t="s">
         <v>279</v>
       </c>
     </row>
@@ -6359,10 +6351,10 @@
       <c r="F109" s="4">
         <v>10000</v>
       </c>
-      <c r="G109" s="14">
-        <v>900</v>
-      </c>
-      <c r="H109" s="15" t="s">
+      <c r="G109">
+        <v>9000</v>
+      </c>
+      <c r="H109" s="14" t="s">
         <v>280</v>
       </c>
     </row>
@@ -6385,10 +6377,10 @@
       <c r="F110" s="4">
         <v>10000</v>
       </c>
-      <c r="G110" s="14">
-        <v>10</v>
-      </c>
-      <c r="H110" s="15" t="s">
+      <c r="G110">
+        <v>100</v>
+      </c>
+      <c r="H110" s="14" t="s">
         <v>281</v>
       </c>
     </row>
@@ -6411,10 +6403,10 @@
       <c r="F111" s="4">
         <v>10000</v>
       </c>
-      <c r="G111" s="14">
-        <v>250</v>
-      </c>
-      <c r="H111" s="15" t="s">
+      <c r="G111">
+        <v>2500</v>
+      </c>
+      <c r="H111" s="14" t="s">
         <v>282</v>
       </c>
     </row>
@@ -6437,10 +6429,10 @@
       <c r="F112" s="4">
         <v>10000</v>
       </c>
-      <c r="G112" s="14">
-        <v>53</v>
-      </c>
-      <c r="H112" s="15" t="s">
+      <c r="G112">
+        <v>530</v>
+      </c>
+      <c r="H112" s="14" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6463,10 +6455,10 @@
       <c r="F113" s="4">
         <v>10000</v>
       </c>
-      <c r="G113" s="14">
-        <v>88</v>
-      </c>
-      <c r="H113" s="15" t="s">
+      <c r="G113">
+        <v>880</v>
+      </c>
+      <c r="H113" s="14" t="s">
         <v>284</v>
       </c>
     </row>
@@ -6489,10 +6481,10 @@
       <c r="F114" s="4">
         <v>10000</v>
       </c>
-      <c r="G114" s="14">
-        <v>50</v>
-      </c>
-      <c r="H114" s="15" t="s">
+      <c r="G114">
+        <v>500</v>
+      </c>
+      <c r="H114" s="14" t="s">
         <v>285</v>
       </c>
     </row>
@@ -6515,10 +6507,10 @@
       <c r="F115" s="4">
         <v>10000</v>
       </c>
-      <c r="G115" s="14">
-        <v>74</v>
-      </c>
-      <c r="H115" s="15" t="s">
+      <c r="G115">
+        <v>740</v>
+      </c>
+      <c r="H115" s="14" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6541,10 +6533,10 @@
       <c r="F116" s="4">
         <v>10000</v>
       </c>
-      <c r="G116" s="14">
-        <v>40</v>
-      </c>
-      <c r="H116" s="15" t="s">
+      <c r="G116">
+        <v>400</v>
+      </c>
+      <c r="H116" s="14" t="s">
         <v>287</v>
       </c>
     </row>
@@ -6567,10 +6559,10 @@
       <c r="F117" s="4">
         <v>10000</v>
       </c>
-      <c r="G117" s="14">
-        <v>96</v>
-      </c>
-      <c r="H117" s="15" t="s">
+      <c r="G117">
+        <v>960</v>
+      </c>
+      <c r="H117" s="14" t="s">
         <v>288</v>
       </c>
     </row>
@@ -6593,10 +6585,10 @@
       <c r="F118" s="4">
         <v>10000</v>
       </c>
-      <c r="G118" s="14">
-        <v>150</v>
-      </c>
-      <c r="H118" s="15" t="s">
+      <c r="G118">
+        <v>1500</v>
+      </c>
+      <c r="H118" s="14" t="s">
         <v>289</v>
       </c>
     </row>
@@ -6619,10 +6611,10 @@
       <c r="F119" s="4">
         <v>10000</v>
       </c>
-      <c r="G119" s="14">
-        <v>60</v>
-      </c>
-      <c r="H119" s="15" t="s">
+      <c r="G119">
+        <v>600</v>
+      </c>
+      <c r="H119" s="14" t="s">
         <v>290</v>
       </c>
     </row>
@@ -6645,10 +6637,10 @@
       <c r="F120" s="4">
         <v>10000</v>
       </c>
-      <c r="G120" s="14">
-        <v>500</v>
-      </c>
-      <c r="H120" s="15" t="s">
+      <c r="G120">
+        <v>5000</v>
+      </c>
+      <c r="H120" s="14" t="s">
         <v>291</v>
       </c>
     </row>
@@ -6671,10 +6663,10 @@
       <c r="F121" s="4">
         <v>10000</v>
       </c>
-      <c r="G121" s="14">
-        <v>90</v>
-      </c>
-      <c r="H121" s="15" t="s">
+      <c r="G121">
+        <v>900</v>
+      </c>
+      <c r="H121" s="14" t="s">
         <v>292</v>
       </c>
     </row>
@@ -6697,10 +6689,10 @@
       <c r="F122" s="4">
         <v>10000</v>
       </c>
-      <c r="G122" s="14">
-        <v>80</v>
-      </c>
-      <c r="H122" s="15" t="s">
+      <c r="G122">
+        <v>800</v>
+      </c>
+      <c r="H122" s="14" t="s">
         <v>293</v>
       </c>
     </row>
@@ -6723,10 +6715,10 @@
       <c r="F123" s="4">
         <v>10000</v>
       </c>
-      <c r="G123" s="14">
-        <v>110</v>
-      </c>
-      <c r="H123" s="15" t="s">
+      <c r="G123">
+        <v>1100</v>
+      </c>
+      <c r="H123" s="14" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6749,10 +6741,10 @@
       <c r="F124" s="4">
         <v>10000</v>
       </c>
-      <c r="G124" s="14">
-        <v>88</v>
-      </c>
-      <c r="H124" s="15" t="s">
+      <c r="G124">
+        <v>880</v>
+      </c>
+      <c r="H124" s="14" t="s">
         <v>295</v>
       </c>
     </row>
@@ -6775,10 +6767,10 @@
       <c r="F125" s="4">
         <v>10000</v>
       </c>
-      <c r="G125" s="14">
-        <v>20</v>
-      </c>
-      <c r="H125" s="15" t="s">
+      <c r="G125">
+        <v>200</v>
+      </c>
+      <c r="H125" s="14" t="s">
         <v>296</v>
       </c>
     </row>
@@ -6801,10 +6793,10 @@
       <c r="F126" s="4">
         <v>10000</v>
       </c>
-      <c r="G126" s="14">
-        <v>60</v>
-      </c>
-      <c r="H126" s="15" t="s">
+      <c r="G126">
+        <v>600</v>
+      </c>
+      <c r="H126" s="14" t="s">
         <v>297</v>
       </c>
     </row>
@@ -6827,10 +6819,10 @@
       <c r="F127" s="4">
         <v>10000</v>
       </c>
-      <c r="G127" s="14">
-        <v>20</v>
-      </c>
-      <c r="H127" s="15" t="s">
+      <c r="G127">
+        <v>200</v>
+      </c>
+      <c r="H127" s="14" t="s">
         <v>298</v>
       </c>
     </row>
@@ -6853,10 +6845,10 @@
       <c r="F128" s="4">
         <v>10000</v>
       </c>
-      <c r="G128" s="14">
-        <v>80</v>
-      </c>
-      <c r="H128" s="15" t="s">
+      <c r="G128">
+        <v>800</v>
+      </c>
+      <c r="H128" s="14" t="s">
         <v>299</v>
       </c>
     </row>
@@ -6879,10 +6871,10 @@
       <c r="F129" s="4">
         <v>10000</v>
       </c>
-      <c r="G129" s="14">
-        <v>35</v>
-      </c>
-      <c r="H129" s="15" t="s">
+      <c r="G129">
+        <v>350</v>
+      </c>
+      <c r="H129" s="14" t="s">
         <v>300</v>
       </c>
     </row>
@@ -6905,10 +6897,10 @@
       <c r="F130" s="4">
         <v>10000</v>
       </c>
-      <c r="G130" s="14">
-        <v>750</v>
-      </c>
-      <c r="H130" s="15" t="s">
+      <c r="G130">
+        <v>7500</v>
+      </c>
+      <c r="H130" s="14" t="s">
         <v>301</v>
       </c>
     </row>
@@ -6931,10 +6923,10 @@
       <c r="F131" s="4">
         <v>10000</v>
       </c>
-      <c r="G131" s="14">
-        <v>110</v>
-      </c>
-      <c r="H131" s="15" t="s">
+      <c r="G131">
+        <v>1100</v>
+      </c>
+      <c r="H131" s="14" t="s">
         <v>302</v>
       </c>
     </row>
@@ -6957,10 +6949,10 @@
       <c r="F132" s="4">
         <v>10000</v>
       </c>
-      <c r="G132" s="14">
-        <v>20</v>
-      </c>
-      <c r="H132" s="15" t="s">
+      <c r="G132">
+        <v>200</v>
+      </c>
+      <c r="H132" s="14" t="s">
         <v>303</v>
       </c>
     </row>
@@ -6983,10 +6975,10 @@
       <c r="F133" s="4">
         <v>10000</v>
       </c>
-      <c r="G133" s="14">
-        <v>10</v>
-      </c>
-      <c r="H133" s="15" t="s">
+      <c r="G133">
+        <v>100</v>
+      </c>
+      <c r="H133" s="14" t="s">
         <v>304</v>
       </c>
     </row>
@@ -7009,10 +7001,10 @@
       <c r="F134" s="4">
         <v>10000</v>
       </c>
-      <c r="G134" s="14">
-        <v>10</v>
-      </c>
-      <c r="H134" s="15" t="s">
+      <c r="G134">
+        <v>100</v>
+      </c>
+      <c r="H134" s="14" t="s">
         <v>305</v>
       </c>
     </row>
@@ -7035,10 +7027,10 @@
       <c r="F135" s="4">
         <v>10000</v>
       </c>
-      <c r="G135" s="14">
-        <v>190</v>
-      </c>
-      <c r="H135" s="15" t="s">
+      <c r="G135">
+        <v>1900</v>
+      </c>
+      <c r="H135" s="14" t="s">
         <v>306</v>
       </c>
     </row>
@@ -7061,10 +7053,10 @@
       <c r="F136" s="4">
         <v>10000</v>
       </c>
-      <c r="G136" s="14">
-        <v>20</v>
-      </c>
-      <c r="H136" s="15" t="s">
+      <c r="G136">
+        <v>200</v>
+      </c>
+      <c r="H136" s="14" t="s">
         <v>307</v>
       </c>
     </row>
@@ -7087,10 +7079,10 @@
       <c r="F137" s="4">
         <v>10000</v>
       </c>
-      <c r="G137" s="14">
-        <v>100</v>
-      </c>
-      <c r="H137" s="15" t="s">
+      <c r="G137">
+        <v>1000</v>
+      </c>
+      <c r="H137" s="14" t="s">
         <v>308</v>
       </c>
     </row>
@@ -7113,10 +7105,10 @@
       <c r="F138" s="4">
         <v>10000</v>
       </c>
-      <c r="G138" s="14">
-        <v>130</v>
-      </c>
-      <c r="H138" s="15" t="s">
+      <c r="G138">
+        <v>1300</v>
+      </c>
+      <c r="H138" s="14" t="s">
         <v>309</v>
       </c>
     </row>
@@ -7139,10 +7131,10 @@
       <c r="F139" s="4">
         <v>10000</v>
       </c>
-      <c r="G139" s="14">
-        <v>10</v>
-      </c>
-      <c r="H139" s="15" t="s">
+      <c r="G139">
+        <v>100</v>
+      </c>
+      <c r="H139" s="14" t="s">
         <v>310</v>
       </c>
     </row>
@@ -7165,10 +7157,10 @@
       <c r="F140" s="4">
         <v>10000</v>
       </c>
-      <c r="G140" s="14">
-        <v>10</v>
-      </c>
-      <c r="H140" s="15" t="s">
+      <c r="G140">
+        <v>100</v>
+      </c>
+      <c r="H140" s="14" t="s">
         <v>311</v>
       </c>
     </row>
@@ -7191,10 +7183,10 @@
       <c r="F141" s="4">
         <v>10000</v>
       </c>
-      <c r="G141" s="14">
-        <v>45</v>
-      </c>
-      <c r="H141" s="15" t="s">
+      <c r="G141">
+        <v>450</v>
+      </c>
+      <c r="H141" s="14" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7217,10 +7209,10 @@
       <c r="F142" s="4">
         <v>10000</v>
       </c>
-      <c r="G142" s="14">
-        <v>15</v>
-      </c>
-      <c r="H142" s="15" t="s">
+      <c r="G142">
+        <v>150</v>
+      </c>
+      <c r="H142" s="14" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7243,10 +7235,10 @@
       <c r="F143" s="4">
         <v>10000</v>
       </c>
-      <c r="G143" s="14">
-        <v>50</v>
-      </c>
-      <c r="H143" s="15" t="s">
+      <c r="G143">
+        <v>500</v>
+      </c>
+      <c r="H143" s="14" t="s">
         <v>314</v>
       </c>
     </row>
@@ -7269,10 +7261,10 @@
       <c r="F144" s="4">
         <v>10000</v>
       </c>
-      <c r="G144" s="14">
-        <v>10</v>
-      </c>
-      <c r="H144" s="15" t="s">
+      <c r="G144">
+        <v>100</v>
+      </c>
+      <c r="H144" s="14" t="s">
         <v>315</v>
       </c>
     </row>
@@ -7295,10 +7287,10 @@
       <c r="F145" s="4">
         <v>10000</v>
       </c>
-      <c r="G145" s="14">
-        <v>10</v>
-      </c>
-      <c r="H145" s="15" t="s">
+      <c r="G145">
+        <v>100</v>
+      </c>
+      <c r="H145" s="14" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7321,10 +7313,10 @@
       <c r="F146" s="4">
         <v>10000</v>
       </c>
-      <c r="G146" s="14">
-        <v>650</v>
-      </c>
-      <c r="H146" s="15" t="s">
+      <c r="G146">
+        <v>6500</v>
+      </c>
+      <c r="H146" s="14" t="s">
         <v>317</v>
       </c>
     </row>
@@ -7347,10 +7339,10 @@
       <c r="F147" s="4">
         <v>10000</v>
       </c>
-      <c r="G147" s="14">
-        <v>650</v>
-      </c>
-      <c r="H147" s="15" t="s">
+      <c r="G147">
+        <v>6500</v>
+      </c>
+      <c r="H147" s="14" t="s">
         <v>318</v>
       </c>
     </row>
@@ -7373,10 +7365,10 @@
       <c r="F148" s="4">
         <v>10000</v>
       </c>
-      <c r="G148" s="16">
-        <v>1300</v>
-      </c>
-      <c r="H148" s="15" t="s">
+      <c r="G148">
+        <v>13000</v>
+      </c>
+      <c r="H148" s="14" t="s">
         <v>319</v>
       </c>
     </row>
@@ -7399,10 +7391,10 @@
       <c r="F149" s="4">
         <v>10000</v>
       </c>
-      <c r="G149" s="14">
-        <v>20</v>
-      </c>
-      <c r="H149" s="15" t="s">
+      <c r="G149">
+        <v>200</v>
+      </c>
+      <c r="H149" s="14" t="s">
         <v>320</v>
       </c>
     </row>
@@ -7425,10 +7417,10 @@
       <c r="F150" s="4">
         <v>10000</v>
       </c>
-      <c r="G150" s="14">
-        <v>40</v>
-      </c>
-      <c r="H150" s="15" t="s">
+      <c r="G150">
+        <v>400</v>
+      </c>
+      <c r="H150" s="14" t="s">
         <v>321</v>
       </c>
     </row>
@@ -7451,10 +7443,10 @@
       <c r="F151" s="4">
         <v>10000</v>
       </c>
-      <c r="G151" s="14">
-        <v>12</v>
-      </c>
-      <c r="H151" s="15" t="s">
+      <c r="G151">
+        <v>120</v>
+      </c>
+      <c r="H151" s="14" t="s">
         <v>322</v>
       </c>
     </row>
@@ -7477,10 +7469,10 @@
       <c r="F152" s="4">
         <v>10000</v>
       </c>
-      <c r="G152" s="14">
-        <v>15</v>
-      </c>
-      <c r="H152" s="15" t="s">
+      <c r="G152">
+        <v>150</v>
+      </c>
+      <c r="H152" s="14" t="s">
         <v>323</v>
       </c>
     </row>
@@ -7503,10 +7495,10 @@
       <c r="F153" s="4">
         <v>10000</v>
       </c>
-      <c r="G153" s="14">
-        <v>160</v>
-      </c>
-      <c r="H153" s="15" t="s">
+      <c r="G153">
+        <v>1600</v>
+      </c>
+      <c r="H153" s="14" t="s">
         <v>324</v>
       </c>
     </row>
@@ -7529,10 +7521,10 @@
       <c r="F154" s="4">
         <v>10000</v>
       </c>
-      <c r="G154" s="14">
-        <v>7</v>
-      </c>
-      <c r="H154" s="15" t="s">
+      <c r="G154">
+        <v>70</v>
+      </c>
+      <c r="H154" s="14" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7555,10 +7547,10 @@
       <c r="F155" s="4">
         <v>10000</v>
       </c>
-      <c r="G155" s="14">
-        <v>90</v>
-      </c>
-      <c r="H155" s="15" t="s">
+      <c r="G155">
+        <v>900</v>
+      </c>
+      <c r="H155" s="14" t="s">
         <v>326</v>
       </c>
     </row>
@@ -7581,10 +7573,10 @@
       <c r="F156" s="4">
         <v>10000</v>
       </c>
-      <c r="G156" s="14">
-        <v>70</v>
-      </c>
-      <c r="H156" s="15" t="s">
+      <c r="G156">
+        <v>700</v>
+      </c>
+      <c r="H156" s="14" t="s">
         <v>327</v>
       </c>
     </row>
@@ -7607,10 +7599,10 @@
       <c r="F157" s="4">
         <v>10000</v>
       </c>
-      <c r="G157" s="14">
-        <v>45</v>
-      </c>
-      <c r="H157" s="15" t="s">
+      <c r="G157">
+        <v>450</v>
+      </c>
+      <c r="H157" s="14" t="s">
         <v>328</v>
       </c>
     </row>
@@ -7633,10 +7625,10 @@
       <c r="F158" s="4">
         <v>10000</v>
       </c>
-      <c r="G158" s="14">
-        <v>45</v>
-      </c>
-      <c r="H158" s="15" t="s">
+      <c r="G158">
+        <v>450</v>
+      </c>
+      <c r="H158" s="14" t="s">
         <v>329</v>
       </c>
     </row>
@@ -7659,10 +7651,10 @@
       <c r="F159" s="4">
         <v>10000</v>
       </c>
-      <c r="G159" s="14">
-        <v>10</v>
-      </c>
-      <c r="H159" s="15" t="s">
+      <c r="G159">
+        <v>100</v>
+      </c>
+      <c r="H159" s="14" t="s">
         <v>330</v>
       </c>
     </row>
@@ -7685,10 +7677,10 @@
       <c r="F160" s="4">
         <v>10000</v>
       </c>
-      <c r="G160" s="14">
-        <v>90</v>
-      </c>
-      <c r="H160" s="15" t="s">
+      <c r="G160">
+        <v>900</v>
+      </c>
+      <c r="H160" s="14" t="s">
         <v>331</v>
       </c>
     </row>
@@ -7711,10 +7703,10 @@
       <c r="F161" s="4">
         <v>10000</v>
       </c>
-      <c r="G161" s="14">
-        <v>12</v>
-      </c>
-      <c r="H161" s="15" t="s">
+      <c r="G161">
+        <v>120</v>
+      </c>
+      <c r="H161" s="14" t="s">
         <v>332</v>
       </c>
     </row>
@@ -7737,10 +7729,10 @@
       <c r="F162" s="4">
         <v>10000</v>
       </c>
-      <c r="G162" s="14">
-        <v>10</v>
-      </c>
-      <c r="H162" s="15" t="s">
+      <c r="G162">
+        <v>100</v>
+      </c>
+      <c r="H162" s="14" t="s">
         <v>333</v>
       </c>
     </row>
@@ -7763,10 +7755,10 @@
       <c r="F163" s="4">
         <v>10000</v>
       </c>
-      <c r="G163" s="14">
-        <v>70</v>
-      </c>
-      <c r="H163" s="15" t="s">
+      <c r="G163">
+        <v>700</v>
+      </c>
+      <c r="H163" s="14" t="s">
         <v>334</v>
       </c>
     </row>
@@ -7789,10 +7781,10 @@
       <c r="F164" s="4">
         <v>10000</v>
       </c>
-      <c r="G164" s="14">
-        <v>10</v>
-      </c>
-      <c r="H164" s="15" t="s">
+      <c r="G164">
+        <v>100</v>
+      </c>
+      <c r="H164" s="14" t="s">
         <v>335</v>
       </c>
     </row>
@@ -7815,10 +7807,10 @@
       <c r="F165" s="4">
         <v>10000</v>
       </c>
-      <c r="G165" s="14">
-        <v>10</v>
-      </c>
-      <c r="H165" s="15" t="s">
+      <c r="G165">
+        <v>100</v>
+      </c>
+      <c r="H165" s="14" t="s">
         <v>336</v>
       </c>
     </row>
@@ -7841,10 +7833,10 @@
       <c r="F166" s="4">
         <v>10000</v>
       </c>
-      <c r="G166" s="14">
-        <v>300</v>
-      </c>
-      <c r="H166" s="15" t="s">
+      <c r="G166">
+        <v>3000</v>
+      </c>
+      <c r="H166" s="14" t="s">
         <v>337</v>
       </c>
     </row>
@@ -7867,10 +7859,10 @@
       <c r="F167" s="4">
         <v>10000</v>
       </c>
-      <c r="G167" s="14">
-        <v>30</v>
-      </c>
-      <c r="H167" s="15" t="s">
+      <c r="G167">
+        <v>300</v>
+      </c>
+      <c r="H167" s="14" t="s">
         <v>338</v>
       </c>
     </row>
@@ -7893,10 +7885,10 @@
       <c r="F168" s="4">
         <v>10000</v>
       </c>
-      <c r="G168" s="14">
-        <v>30</v>
-      </c>
-      <c r="H168" s="15" t="s">
+      <c r="G168">
+        <v>300</v>
+      </c>
+      <c r="H168" s="14" t="s">
         <v>339</v>
       </c>
     </row>
@@ -7919,10 +7911,10 @@
       <c r="F169" s="4">
         <v>10000</v>
       </c>
-      <c r="G169" s="14">
-        <v>50</v>
-      </c>
-      <c r="H169" s="15" t="s">
+      <c r="G169">
+        <v>500</v>
+      </c>
+      <c r="H169" s="14" t="s">
         <v>340</v>
       </c>
     </row>
@@ -7945,10 +7937,10 @@
       <c r="F170" s="4">
         <v>10000</v>
       </c>
-      <c r="G170" s="14">
-        <v>142</v>
-      </c>
-      <c r="H170" s="15" t="s">
+      <c r="G170">
+        <v>1420</v>
+      </c>
+      <c r="H170" s="14" t="s">
         <v>341</v>
       </c>
     </row>
@@ -7971,10 +7963,10 @@
       <c r="F171" s="4">
         <v>10000</v>
       </c>
-      <c r="G171" s="14">
-        <v>20</v>
-      </c>
-      <c r="H171" s="15" t="s">
+      <c r="G171">
+        <v>200</v>
+      </c>
+      <c r="H171" s="14" t="s">
         <v>342</v>
       </c>
     </row>
@@ -7997,10 +7989,10 @@
       <c r="F172" s="4">
         <v>10000</v>
       </c>
-      <c r="G172" s="14">
-        <v>20</v>
-      </c>
-      <c r="H172" s="15" t="s">
+      <c r="G172">
+        <v>200</v>
+      </c>
+      <c r="H172" s="14" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8023,10 +8015,10 @@
       <c r="F173" s="4">
         <v>10000</v>
       </c>
-      <c r="G173" s="14">
-        <v>30</v>
-      </c>
-      <c r="H173" s="15" t="s">
+      <c r="G173">
+        <v>300</v>
+      </c>
+      <c r="H173" s="14" t="s">
         <v>344</v>
       </c>
     </row>
@@ -8049,10 +8041,10 @@
       <c r="F174" s="4">
         <v>10000</v>
       </c>
-      <c r="G174" s="16">
-        <v>1740</v>
-      </c>
-      <c r="H174" s="15" t="s">
+      <c r="G174">
+        <v>17400</v>
+      </c>
+      <c r="H174" s="14" t="s">
         <v>345</v>
       </c>
     </row>
@@ -8075,10 +8067,10 @@
       <c r="F175" s="4">
         <v>10000</v>
       </c>
-      <c r="G175" s="16">
-        <v>1500</v>
-      </c>
-      <c r="H175" s="15" t="s">
+      <c r="G175">
+        <v>15000</v>
+      </c>
+      <c r="H175" s="14" t="s">
         <v>346</v>
       </c>
     </row>
@@ -8101,10 +8093,10 @@
       <c r="F176" s="4">
         <v>10000</v>
       </c>
-      <c r="G176" s="14">
-        <v>10</v>
-      </c>
-      <c r="H176" s="15" t="s">
+      <c r="G176">
+        <v>100</v>
+      </c>
+      <c r="H176" s="14" t="s">
         <v>347</v>
       </c>
     </row>
@@ -8127,10 +8119,10 @@
       <c r="F177" s="4">
         <v>10000</v>
       </c>
-      <c r="G177" s="14">
-        <v>10</v>
-      </c>
-      <c r="H177" s="15" t="s">
+      <c r="G177">
+        <v>100</v>
+      </c>
+      <c r="H177" s="14" t="s">
         <v>348</v>
       </c>
     </row>
@@ -8153,10 +8145,10 @@
       <c r="F178" s="4">
         <v>10000</v>
       </c>
-      <c r="G178" s="14">
-        <v>650</v>
-      </c>
-      <c r="H178" s="15" t="s">
+      <c r="G178">
+        <v>6500</v>
+      </c>
+      <c r="H178" s="14" t="s">
         <v>349</v>
       </c>
     </row>
@@ -8179,10 +8171,10 @@
       <c r="F179" s="4">
         <v>10000</v>
       </c>
-      <c r="G179" s="16">
-        <v>1300</v>
-      </c>
-      <c r="H179" s="15" t="s">
+      <c r="G179">
+        <v>13000</v>
+      </c>
+      <c r="H179" s="14" t="s">
         <v>350</v>
       </c>
     </row>
@@ -8205,10 +8197,10 @@
       <c r="F180" s="4">
         <v>10000</v>
       </c>
-      <c r="G180" s="14">
-        <v>37</v>
-      </c>
-      <c r="H180" s="15" t="s">
+      <c r="G180">
+        <v>370</v>
+      </c>
+      <c r="H180" s="14" t="s">
         <v>351</v>
       </c>
     </row>
@@ -8231,10 +8223,10 @@
       <c r="F181" s="4">
         <v>10000</v>
       </c>
-      <c r="G181" s="14">
-        <v>152</v>
-      </c>
-      <c r="H181" s="15" t="s">
+      <c r="G181">
+        <v>1520</v>
+      </c>
+      <c r="H181" s="14" t="s">
         <v>352</v>
       </c>
     </row>
@@ -8257,10 +8249,10 @@
       <c r="F182" s="4">
         <v>10000</v>
       </c>
-      <c r="G182" s="14">
-        <v>40</v>
-      </c>
-      <c r="H182" s="15" t="s">
+      <c r="G182">
+        <v>400</v>
+      </c>
+      <c r="H182" s="14" t="s">
         <v>353</v>
       </c>
     </row>
@@ -8283,10 +8275,10 @@
       <c r="F183" s="4">
         <v>10000</v>
       </c>
-      <c r="G183" s="14">
-        <v>50</v>
-      </c>
-      <c r="H183" s="15" t="s">
+      <c r="G183">
+        <v>500</v>
+      </c>
+      <c r="H183" s="14" t="s">
         <v>354</v>
       </c>
     </row>
@@ -8309,10 +8301,10 @@
       <c r="F184" s="4">
         <v>10000</v>
       </c>
-      <c r="G184" s="14">
-        <v>50</v>
-      </c>
-      <c r="H184" s="15" t="s">
+      <c r="G184">
+        <v>500</v>
+      </c>
+      <c r="H184" s="14" t="s">
         <v>355</v>
       </c>
     </row>
@@ -8335,10 +8327,10 @@
       <c r="F185" s="4">
         <v>10000</v>
       </c>
-      <c r="G185" s="14">
-        <v>50</v>
-      </c>
-      <c r="H185" s="15" t="s">
+      <c r="G185">
+        <v>500</v>
+      </c>
+      <c r="H185" s="14" t="s">
         <v>356</v>
       </c>
     </row>
@@ -8361,10 +8353,10 @@
       <c r="F186" s="4">
         <v>10000</v>
       </c>
-      <c r="G186" s="14">
-        <v>50</v>
-      </c>
-      <c r="H186" s="15" t="s">
+      <c r="G186">
+        <v>500</v>
+      </c>
+      <c r="H186" s="14" t="s">
         <v>357</v>
       </c>
     </row>
@@ -8387,10 +8379,10 @@
       <c r="F187" s="4">
         <v>10000</v>
       </c>
-      <c r="G187" s="14">
-        <v>50</v>
-      </c>
-      <c r="H187" s="15" t="s">
+      <c r="G187">
+        <v>500</v>
+      </c>
+      <c r="H187" s="14" t="s">
         <v>358</v>
       </c>
     </row>
@@ -8413,10 +8405,10 @@
       <c r="F188" s="4">
         <v>10000</v>
       </c>
-      <c r="G188" s="14">
-        <v>50</v>
-      </c>
-      <c r="H188" s="15" t="s">
+      <c r="G188">
+        <v>500</v>
+      </c>
+      <c r="H188" s="14" t="s">
         <v>359</v>
       </c>
     </row>
@@ -8439,10 +8431,10 @@
       <c r="F189" s="4">
         <v>10000</v>
       </c>
-      <c r="G189" s="14">
-        <v>50</v>
-      </c>
-      <c r="H189" s="15" t="s">
+      <c r="G189">
+        <v>500</v>
+      </c>
+      <c r="H189" s="14" t="s">
         <v>360</v>
       </c>
     </row>
@@ -8465,10 +8457,10 @@
       <c r="F190" s="4">
         <v>10000</v>
       </c>
-      <c r="G190" s="14">
-        <v>50</v>
-      </c>
-      <c r="H190" s="15" t="s">
+      <c r="G190">
+        <v>500</v>
+      </c>
+      <c r="H190" s="14" t="s">
         <v>361</v>
       </c>
     </row>
@@ -8491,10 +8483,10 @@
       <c r="F191" s="4">
         <v>10000</v>
       </c>
-      <c r="G191" s="14">
-        <v>50</v>
-      </c>
-      <c r="H191" s="15" t="s">
+      <c r="G191">
+        <v>500</v>
+      </c>
+      <c r="H191" s="14" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8517,10 +8509,10 @@
       <c r="F192" s="4">
         <v>10000</v>
       </c>
-      <c r="G192" s="14">
-        <v>78</v>
-      </c>
-      <c r="H192" s="15" t="s">
+      <c r="G192">
+        <v>780</v>
+      </c>
+      <c r="H192" s="14" t="s">
         <v>363</v>
       </c>
     </row>
@@ -8543,10 +8535,10 @@
       <c r="F193" s="4">
         <v>10000</v>
       </c>
-      <c r="G193" s="14">
-        <v>80</v>
-      </c>
-      <c r="H193" s="15" t="s">
+      <c r="G193">
+        <v>800</v>
+      </c>
+      <c r="H193" s="14" t="s">
         <v>364</v>
       </c>
     </row>
@@ -8569,10 +8561,10 @@
       <c r="F194" s="4">
         <v>10000</v>
       </c>
-      <c r="G194" s="14">
-        <v>125</v>
-      </c>
-      <c r="H194" s="15" t="s">
+      <c r="G194">
+        <v>1250</v>
+      </c>
+      <c r="H194" s="14" t="s">
         <v>365</v>
       </c>
     </row>
@@ -8595,10 +8587,10 @@
       <c r="F195" s="4">
         <v>10000</v>
       </c>
-      <c r="G195" s="14">
-        <v>65</v>
-      </c>
-      <c r="H195" s="15" t="s">
+      <c r="G195">
+        <v>650</v>
+      </c>
+      <c r="H195" s="14" t="s">
         <v>366</v>
       </c>
     </row>
@@ -8621,10 +8613,10 @@
       <c r="F196" s="4">
         <v>10000</v>
       </c>
-      <c r="G196" s="14">
-        <v>70</v>
-      </c>
-      <c r="H196" s="15" t="s">
+      <c r="G196">
+        <v>700</v>
+      </c>
+      <c r="H196" s="14" t="s">
         <v>367</v>
       </c>
     </row>
@@ -8647,10 +8639,10 @@
       <c r="F197" s="4">
         <v>10000</v>
       </c>
-      <c r="G197" s="14">
-        <v>230</v>
-      </c>
-      <c r="H197" s="15" t="s">
+      <c r="G197">
+        <v>2300</v>
+      </c>
+      <c r="H197" s="14" t="s">
         <v>368</v>
       </c>
     </row>
@@ -8673,10 +8665,10 @@
       <c r="F198" s="4">
         <v>10000</v>
       </c>
-      <c r="G198" s="14">
-        <v>40</v>
-      </c>
-      <c r="H198" s="15" t="s">
+      <c r="G198">
+        <v>400</v>
+      </c>
+      <c r="H198" s="14" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8699,10 +8691,10 @@
       <c r="F199" s="4">
         <v>10000</v>
       </c>
-      <c r="G199" s="14">
-        <v>15</v>
-      </c>
-      <c r="H199" s="15" t="s">
+      <c r="G199">
+        <v>150</v>
+      </c>
+      <c r="H199" s="14" t="s">
         <v>370</v>
       </c>
     </row>
@@ -8725,10 +8717,10 @@
       <c r="F200" s="4">
         <v>10000</v>
       </c>
-      <c r="G200" s="14">
-        <v>120</v>
-      </c>
-      <c r="H200" s="15" t="s">
+      <c r="G200">
+        <v>1200</v>
+      </c>
+      <c r="H200" s="14" t="s">
         <v>371</v>
       </c>
     </row>
@@ -8751,10 +8743,10 @@
       <c r="F201" s="4">
         <v>10000</v>
       </c>
-      <c r="G201" s="14">
-        <v>93</v>
-      </c>
-      <c r="H201" s="15" t="s">
+      <c r="G201">
+        <v>930</v>
+      </c>
+      <c r="H201" s="14" t="s">
         <v>372</v>
       </c>
     </row>
@@ -8777,10 +8769,10 @@
       <c r="F202" s="4">
         <v>10000</v>
       </c>
-      <c r="G202" s="14">
-        <v>120</v>
-      </c>
-      <c r="H202" s="15" t="s">
+      <c r="G202">
+        <v>1200</v>
+      </c>
+      <c r="H202" s="14" t="s">
         <v>373</v>
       </c>
     </row>
@@ -8803,10 +8795,10 @@
       <c r="F203" s="4">
         <v>10000</v>
       </c>
-      <c r="G203" s="14">
-        <v>500</v>
-      </c>
-      <c r="H203" s="15" t="s">
+      <c r="G203">
+        <v>5000</v>
+      </c>
+      <c r="H203" s="14" t="s">
         <v>374</v>
       </c>
     </row>
@@ -8829,10 +8821,10 @@
       <c r="F204" s="4">
         <v>10000</v>
       </c>
-      <c r="G204" s="14">
-        <v>350</v>
-      </c>
-      <c r="H204" s="15" t="s">
+      <c r="G204">
+        <v>3500</v>
+      </c>
+      <c r="H204" s="14" t="s">
         <v>375</v>
       </c>
     </row>
@@ -8855,10 +8847,10 @@
       <c r="F205" s="4">
         <v>10000</v>
       </c>
-      <c r="G205" s="14">
-        <v>40</v>
-      </c>
-      <c r="H205" s="15" t="s">
+      <c r="G205">
+        <v>400</v>
+      </c>
+      <c r="H205" s="14" t="s">
         <v>376</v>
       </c>
     </row>
@@ -8881,10 +8873,10 @@
       <c r="F206" s="4">
         <v>10000</v>
       </c>
-      <c r="G206" s="14">
-        <v>120</v>
-      </c>
-      <c r="H206" s="15" t="s">
+      <c r="G206">
+        <v>1200</v>
+      </c>
+      <c r="H206" s="14" t="s">
         <v>377</v>
       </c>
     </row>
@@ -8907,10 +8899,10 @@
       <c r="F207" s="4">
         <v>10000</v>
       </c>
-      <c r="G207" s="14">
+      <c r="G207">
         <v>0</v>
       </c>
-      <c r="H207" s="15" t="s">
+      <c r="H207" s="14" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8933,10 +8925,10 @@
       <c r="F208" s="4">
         <v>10000</v>
       </c>
-      <c r="G208" s="14">
+      <c r="G208">
         <v>0</v>
       </c>
-      <c r="H208" s="15" t="s">
+      <c r="H208" s="14" t="s">
         <v>379</v>
       </c>
     </row>
@@ -8959,10 +8951,10 @@
       <c r="F209" s="4">
         <v>10000</v>
       </c>
-      <c r="G209" s="14">
-        <v>20</v>
-      </c>
-      <c r="H209" s="15" t="s">
+      <c r="G209">
+        <v>200</v>
+      </c>
+      <c r="H209" s="14" t="s">
         <v>380</v>
       </c>
     </row>
@@ -8985,10 +8977,10 @@
       <c r="F210" s="4">
         <v>10000</v>
       </c>
-      <c r="G210" s="14">
-        <v>20</v>
-      </c>
-      <c r="H210" s="15" t="s">
+      <c r="G210">
+        <v>200</v>
+      </c>
+      <c r="H210" s="14" t="s">
         <v>381</v>
       </c>
     </row>
@@ -9011,10 +9003,10 @@
       <c r="F211" s="4">
         <v>10000</v>
       </c>
-      <c r="G211" s="14">
-        <v>20</v>
-      </c>
-      <c r="H211" s="15" t="s">
+      <c r="G211">
+        <v>200</v>
+      </c>
+      <c r="H211" s="14" t="s">
         <v>382</v>
       </c>
     </row>
@@ -9037,10 +9029,10 @@
       <c r="F212" s="4">
         <v>10000</v>
       </c>
-      <c r="G212" s="14">
-        <v>20</v>
-      </c>
-      <c r="H212" s="15" t="s">
+      <c r="G212">
+        <v>200</v>
+      </c>
+      <c r="H212" s="14" t="s">
         <v>383</v>
       </c>
     </row>
@@ -9063,10 +9055,10 @@
       <c r="F213" s="4">
         <v>10000</v>
       </c>
-      <c r="G213" s="14">
-        <v>20</v>
-      </c>
-      <c r="H213" s="15" t="s">
+      <c r="G213">
+        <v>200</v>
+      </c>
+      <c r="H213" s="14" t="s">
         <v>384</v>
       </c>
     </row>
@@ -9089,10 +9081,10 @@
       <c r="F214" s="4">
         <v>10000</v>
       </c>
-      <c r="G214" s="14">
-        <v>106</v>
-      </c>
-      <c r="H214" s="15" t="s">
+      <c r="G214">
+        <v>1060</v>
+      </c>
+      <c r="H214" s="14" t="s">
         <v>385</v>
       </c>
     </row>
@@ -9115,10 +9107,10 @@
       <c r="F215" s="4">
         <v>10000</v>
       </c>
-      <c r="G215" s="14">
-        <v>20</v>
-      </c>
-      <c r="H215" s="15" t="s">
+      <c r="G215">
+        <v>200</v>
+      </c>
+      <c r="H215" s="14" t="s">
         <v>386</v>
       </c>
     </row>
@@ -9141,10 +9133,10 @@
       <c r="F216" s="4">
         <v>10000</v>
       </c>
-      <c r="G216" s="14">
-        <v>56</v>
-      </c>
-      <c r="H216" s="15" t="s">
+      <c r="G216">
+        <v>560</v>
+      </c>
+      <c r="H216" s="14" t="s">
         <v>387</v>
       </c>
     </row>
@@ -9167,10 +9159,10 @@
       <c r="F217" s="4">
         <v>10000</v>
       </c>
-      <c r="G217" s="14">
-        <v>56</v>
-      </c>
-      <c r="H217" s="15" t="s">
+      <c r="G217">
+        <v>560</v>
+      </c>
+      <c r="H217" s="14" t="s">
         <v>388</v>
       </c>
     </row>
@@ -9193,10 +9185,10 @@
       <c r="F218" s="4">
         <v>10000</v>
       </c>
-      <c r="G218" s="14">
-        <v>250</v>
-      </c>
-      <c r="H218" s="15" t="s">
+      <c r="G218">
+        <v>2500</v>
+      </c>
+      <c r="H218" s="14" t="s">
         <v>389</v>
       </c>
     </row>
@@ -9219,10 +9211,10 @@
       <c r="F219" s="4">
         <v>10000</v>
       </c>
-      <c r="G219" s="14">
-        <v>70</v>
-      </c>
-      <c r="H219" s="15" t="s">
+      <c r="G219">
+        <v>700</v>
+      </c>
+      <c r="H219" s="14" t="s">
         <v>390</v>
       </c>
     </row>
@@ -9245,10 +9237,10 @@
       <c r="F220" s="4">
         <v>10000</v>
       </c>
-      <c r="G220" s="14">
-        <v>150</v>
-      </c>
-      <c r="H220" s="15" t="s">
+      <c r="G220">
+        <v>1500</v>
+      </c>
+      <c r="H220" s="14" t="s">
         <v>391</v>
       </c>
     </row>
@@ -9271,10 +9263,10 @@
       <c r="F221" s="4">
         <v>10000</v>
       </c>
-      <c r="G221" s="14">
-        <v>10</v>
-      </c>
-      <c r="H221" s="15" t="s">
+      <c r="G221">
+        <v>100</v>
+      </c>
+      <c r="H221" s="14" t="s">
         <v>392</v>
       </c>
     </row>
@@ -9297,10 +9289,10 @@
       <c r="F222" s="4">
         <v>10000</v>
       </c>
-      <c r="G222" s="14">
-        <v>100</v>
-      </c>
-      <c r="H222" s="15" t="s">
+      <c r="G222">
+        <v>1000</v>
+      </c>
+      <c r="H222" s="14" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9323,10 +9315,10 @@
       <c r="F223" s="4">
         <v>10000</v>
       </c>
-      <c r="G223" s="14">
-        <v>50</v>
-      </c>
-      <c r="H223" s="15" t="s">
+      <c r="G223">
+        <v>500</v>
+      </c>
+      <c r="H223" s="14" t="s">
         <v>394</v>
       </c>
     </row>
@@ -9349,10 +9341,10 @@
       <c r="F224" s="4">
         <v>10000</v>
       </c>
-      <c r="G224" s="14">
-        <v>10.5</v>
-      </c>
-      <c r="H224" s="15" t="s">
+      <c r="G224">
+        <v>105</v>
+      </c>
+      <c r="H224" s="14" t="s">
         <v>395</v>
       </c>
     </row>
@@ -9375,10 +9367,10 @@
       <c r="F225" s="4">
         <v>10000</v>
       </c>
-      <c r="G225" s="14">
-        <v>210</v>
-      </c>
-      <c r="H225" s="15" t="s">
+      <c r="G225">
+        <v>2100</v>
+      </c>
+      <c r="H225" s="14" t="s">
         <v>396</v>
       </c>
     </row>
@@ -9401,10 +9393,10 @@
       <c r="F226" s="4">
         <v>10000</v>
       </c>
-      <c r="G226" s="14">
-        <v>10</v>
-      </c>
-      <c r="H226" s="15" t="s">
+      <c r="G226">
+        <v>100</v>
+      </c>
+      <c r="H226" s="14" t="s">
         <v>397</v>
       </c>
     </row>
@@ -9427,10 +9419,10 @@
       <c r="F227" s="4">
         <v>10000</v>
       </c>
-      <c r="G227" s="14">
-        <v>10</v>
-      </c>
-      <c r="H227" s="15" t="s">
+      <c r="G227">
+        <v>100</v>
+      </c>
+      <c r="H227" s="14" t="s">
         <v>398</v>
       </c>
     </row>
@@ -9453,10 +9445,10 @@
       <c r="F228" s="4">
         <v>10000</v>
       </c>
-      <c r="G228" s="14">
-        <v>110</v>
-      </c>
-      <c r="H228" s="15" t="s">
+      <c r="G228">
+        <v>1100</v>
+      </c>
+      <c r="H228" s="14" t="s">
         <v>399</v>
       </c>
     </row>
@@ -9479,10 +9471,10 @@
       <c r="F229" s="4">
         <v>10000</v>
       </c>
-      <c r="G229" s="14">
-        <v>168</v>
-      </c>
-      <c r="H229" s="15" t="s">
+      <c r="G229">
+        <v>1680</v>
+      </c>
+      <c r="H229" s="14" t="s">
         <v>400</v>
       </c>
     </row>
@@ -9505,10 +9497,10 @@
       <c r="F230" s="4">
         <v>10000</v>
       </c>
-      <c r="G230" s="14">
-        <v>300</v>
-      </c>
-      <c r="H230" s="15" t="s">
+      <c r="G230">
+        <v>3000</v>
+      </c>
+      <c r="H230" s="14" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9531,10 +9523,10 @@
       <c r="F231" s="4">
         <v>10000</v>
       </c>
-      <c r="G231" s="14">
-        <v>60</v>
-      </c>
-      <c r="H231" s="15" t="s">
+      <c r="G231">
+        <v>600</v>
+      </c>
+      <c r="H231" s="14" t="s">
         <v>402</v>
       </c>
     </row>
@@ -9557,10 +9549,10 @@
       <c r="F232" s="4">
         <v>10000</v>
       </c>
-      <c r="G232" s="14">
-        <v>90</v>
-      </c>
-      <c r="H232" s="15" t="s">
+      <c r="G232">
+        <v>900</v>
+      </c>
+      <c r="H232" s="14" t="s">
         <v>403</v>
       </c>
     </row>
@@ -9583,10 +9575,10 @@
       <c r="F233" s="4">
         <v>10000</v>
       </c>
-      <c r="G233" s="14">
-        <v>70</v>
-      </c>
-      <c r="H233" s="15" t="s">
+      <c r="G233">
+        <v>700</v>
+      </c>
+      <c r="H233" s="14" t="s">
         <v>404</v>
       </c>
     </row>
@@ -9609,10 +9601,10 @@
       <c r="F234" s="4">
         <v>10000</v>
       </c>
-      <c r="G234" s="14">
-        <v>20</v>
-      </c>
-      <c r="H234" s="15" t="s">
+      <c r="G234">
+        <v>200</v>
+      </c>
+      <c r="H234" s="14" t="s">
         <v>405</v>
       </c>
     </row>
@@ -9635,10 +9627,10 @@
       <c r="F235" s="4">
         <v>10000</v>
       </c>
-      <c r="G235" s="14">
-        <v>90</v>
-      </c>
-      <c r="H235" s="15" t="s">
+      <c r="G235">
+        <v>900</v>
+      </c>
+      <c r="H235" s="14" t="s">
         <v>406</v>
       </c>
     </row>
@@ -9661,10 +9653,10 @@
       <c r="F236" s="4">
         <v>10000</v>
       </c>
-      <c r="G236" s="16">
-        <v>1500</v>
-      </c>
-      <c r="H236" s="15" t="s">
+      <c r="G236">
+        <v>15000</v>
+      </c>
+      <c r="H236" s="14" t="s">
         <v>407</v>
       </c>
     </row>
@@ -9687,10 +9679,10 @@
       <c r="F237" s="4">
         <v>10000</v>
       </c>
-      <c r="G237" s="14">
-        <v>20</v>
-      </c>
-      <c r="H237" s="15" t="s">
+      <c r="G237">
+        <v>200</v>
+      </c>
+      <c r="H237" s="14" t="s">
         <v>408</v>
       </c>
     </row>
@@ -9713,10 +9705,10 @@
       <c r="F238" s="4">
         <v>10000</v>
       </c>
-      <c r="G238" s="14">
-        <v>40</v>
-      </c>
-      <c r="H238" s="15" t="s">
+      <c r="G238">
+        <v>400</v>
+      </c>
+      <c r="H238" s="14" t="s">
         <v>409</v>
       </c>
     </row>
@@ -9739,10 +9731,10 @@
       <c r="F239" s="4">
         <v>10000</v>
       </c>
-      <c r="G239" s="14">
-        <v>110</v>
-      </c>
-      <c r="H239" s="15" t="s">
+      <c r="G239">
+        <v>1100</v>
+      </c>
+      <c r="H239" s="14" t="s">
         <v>410</v>
       </c>
     </row>
@@ -9765,10 +9757,10 @@
       <c r="F240" s="4">
         <v>10000</v>
       </c>
-      <c r="G240" s="14">
-        <v>10</v>
-      </c>
-      <c r="H240" s="15" t="s">
+      <c r="G240">
+        <v>100</v>
+      </c>
+      <c r="H240" s="14" t="s">
         <v>411</v>
       </c>
     </row>
@@ -9791,10 +9783,10 @@
       <c r="F241" s="4">
         <v>10000</v>
       </c>
-      <c r="G241" s="16">
-        <v>2200</v>
-      </c>
-      <c r="H241" s="15" t="s">
+      <c r="G241">
+        <v>22000</v>
+      </c>
+      <c r="H241" s="14" t="s">
         <v>412</v>
       </c>
     </row>
@@ -9817,10 +9809,10 @@
       <c r="F242" s="4">
         <v>10000</v>
       </c>
-      <c r="G242" s="14">
-        <v>5</v>
-      </c>
-      <c r="H242" s="15" t="s">
+      <c r="G242">
+        <v>50</v>
+      </c>
+      <c r="H242" s="14" t="s">
         <v>413</v>
       </c>
     </row>
@@ -9843,10 +9835,10 @@
       <c r="F243" s="4">
         <v>10000</v>
       </c>
-      <c r="G243" s="14">
-        <v>370</v>
-      </c>
-      <c r="H243" s="15" t="s">
+      <c r="G243">
+        <v>3700</v>
+      </c>
+      <c r="H243" s="14" t="s">
         <v>414</v>
       </c>
     </row>
@@ -9869,10 +9861,10 @@
       <c r="F244" s="4">
         <v>10000</v>
       </c>
-      <c r="G244" s="14">
-        <v>30</v>
-      </c>
-      <c r="H244" s="15" t="s">
+      <c r="G244">
+        <v>300</v>
+      </c>
+      <c r="H244" s="14" t="s">
         <v>415</v>
       </c>
     </row>
@@ -9895,10 +9887,10 @@
       <c r="F245" s="4">
         <v>10000</v>
       </c>
-      <c r="G245" s="14">
-        <v>30</v>
-      </c>
-      <c r="H245" s="15" t="s">
+      <c r="G245">
+        <v>300</v>
+      </c>
+      <c r="H245" s="14" t="s">
         <v>416</v>
       </c>
     </row>
@@ -9921,10 +9913,10 @@
       <c r="F246" s="4">
         <v>10000</v>
       </c>
-      <c r="G246" s="14">
-        <v>130</v>
-      </c>
-      <c r="H246" s="15" t="s">
+      <c r="G246">
+        <v>1300</v>
+      </c>
+      <c r="H246" s="14" t="s">
         <v>417</v>
       </c>
     </row>
@@ -9947,10 +9939,10 @@
       <c r="F247" s="4">
         <v>10000</v>
       </c>
-      <c r="G247" s="14">
-        <v>200</v>
-      </c>
-      <c r="H247" s="15" t="s">
+      <c r="G247">
+        <v>2000</v>
+      </c>
+      <c r="H247" s="14" t="s">
         <v>418</v>
       </c>
     </row>
@@ -9973,10 +9965,10 @@
       <c r="F248" s="4">
         <v>10000</v>
       </c>
-      <c r="G248" s="14">
-        <v>200</v>
-      </c>
-      <c r="H248" s="15" t="s">
+      <c r="G248">
+        <v>2000</v>
+      </c>
+      <c r="H248" s="14" t="s">
         <v>419</v>
       </c>
     </row>
@@ -9999,10 +9991,10 @@
       <c r="F249" s="4">
         <v>10000</v>
       </c>
-      <c r="G249" s="14">
-        <v>220</v>
-      </c>
-      <c r="H249" s="15" t="s">
+      <c r="G249">
+        <v>2200</v>
+      </c>
+      <c r="H249" s="14" t="s">
         <v>420</v>
       </c>
     </row>
@@ -10025,10 +10017,10 @@
       <c r="F250" s="4">
         <v>10000</v>
       </c>
-      <c r="G250" s="14">
-        <v>220</v>
-      </c>
-      <c r="H250" s="15" t="s">
+      <c r="G250">
+        <v>2200</v>
+      </c>
+      <c r="H250" s="14" t="s">
         <v>421</v>
       </c>
     </row>
@@ -10051,10 +10043,10 @@
       <c r="F251" s="4">
         <v>10000</v>
       </c>
-      <c r="G251" s="14">
-        <v>100</v>
-      </c>
-      <c r="H251" s="15" t="s">
+      <c r="G251">
+        <v>1000</v>
+      </c>
+      <c r="H251" s="14" t="s">
         <v>422</v>
       </c>
     </row>
@@ -10077,10 +10069,10 @@
       <c r="F252" s="4">
         <v>10000</v>
       </c>
-      <c r="G252" s="14">
-        <v>110</v>
-      </c>
-      <c r="H252" s="15" t="s">
+      <c r="G252">
+        <v>1100</v>
+      </c>
+      <c r="H252" s="14" t="s">
         <v>423</v>
       </c>
     </row>
@@ -10103,10 +10095,10 @@
       <c r="F253" s="4">
         <v>10000</v>
       </c>
-      <c r="G253" s="14">
-        <v>130</v>
-      </c>
-      <c r="H253" s="15" t="s">
+      <c r="G253">
+        <v>1300</v>
+      </c>
+      <c r="H253" s="14" t="s">
         <v>424</v>
       </c>
     </row>
@@ -10129,10 +10121,10 @@
       <c r="F254" s="4">
         <v>10000</v>
       </c>
-      <c r="G254" s="14">
-        <v>42</v>
-      </c>
-      <c r="H254" s="15" t="s">
+      <c r="G254">
+        <v>420</v>
+      </c>
+      <c r="H254" s="14" t="s">
         <v>425</v>
       </c>
     </row>
@@ -10155,10 +10147,10 @@
       <c r="F255" s="4">
         <v>10000</v>
       </c>
-      <c r="G255" s="14">
-        <v>90</v>
-      </c>
-      <c r="H255" s="15" t="s">
+      <c r="G255">
+        <v>900</v>
+      </c>
+      <c r="H255" s="14" t="s">
         <v>426</v>
       </c>
     </row>
@@ -10181,10 +10173,10 @@
       <c r="F256" s="4">
         <v>10000</v>
       </c>
-      <c r="G256" s="14">
-        <v>40</v>
-      </c>
-      <c r="H256" s="15" t="s">
+      <c r="G256">
+        <v>400</v>
+      </c>
+      <c r="H256" s="14" t="s">
         <v>427</v>
       </c>
     </row>
@@ -10207,10 +10199,10 @@
       <c r="F257" s="4">
         <v>10000</v>
       </c>
-      <c r="G257" s="14">
-        <v>60</v>
-      </c>
-      <c r="H257" s="15" t="s">
+      <c r="G257">
+        <v>600</v>
+      </c>
+      <c r="H257" s="14" t="s">
         <v>694</v>
       </c>
     </row>
@@ -10233,10 +10225,10 @@
       <c r="F258" s="4">
         <v>10000</v>
       </c>
-      <c r="G258" s="14">
-        <v>70</v>
-      </c>
-      <c r="H258" s="15" t="s">
+      <c r="G258">
+        <v>700</v>
+      </c>
+      <c r="H258" s="14" t="s">
         <v>695</v>
       </c>
     </row>
@@ -10259,10 +10251,10 @@
       <c r="F259" s="4">
         <v>10000</v>
       </c>
-      <c r="G259" s="14">
-        <v>35</v>
-      </c>
-      <c r="H259" s="15" t="s">
+      <c r="G259">
+        <v>350</v>
+      </c>
+      <c r="H259" s="14" t="s">
         <v>696</v>
       </c>
     </row>
@@ -10285,10 +10277,10 @@
       <c r="F260" s="4">
         <v>10000</v>
       </c>
-      <c r="G260" s="14">
-        <v>100</v>
-      </c>
-      <c r="H260" s="15" t="s">
+      <c r="G260">
+        <v>1000</v>
+      </c>
+      <c r="H260" s="14" t="s">
         <v>697</v>
       </c>
     </row>
@@ -10311,10 +10303,10 @@
       <c r="F261" s="4">
         <v>10000</v>
       </c>
-      <c r="G261" s="14">
-        <v>30</v>
-      </c>
-      <c r="H261" s="15" t="s">
+      <c r="G261">
+        <v>300</v>
+      </c>
+      <c r="H261" s="14" t="s">
         <v>698</v>
       </c>
     </row>
@@ -10337,10 +10329,10 @@
       <c r="F262" s="4">
         <v>10000</v>
       </c>
-      <c r="G262" s="14">
-        <v>56</v>
-      </c>
-      <c r="H262" s="15" t="s">
+      <c r="G262">
+        <v>560</v>
+      </c>
+      <c r="H262" s="14" t="s">
         <v>699</v>
       </c>
     </row>
@@ -10363,10 +10355,10 @@
       <c r="F263" s="4">
         <v>10000</v>
       </c>
-      <c r="G263" s="14">
-        <v>36</v>
-      </c>
-      <c r="H263" s="15" t="s">
+      <c r="G263">
+        <v>360</v>
+      </c>
+      <c r="H263" s="14" t="s">
         <v>700</v>
       </c>
     </row>
@@ -10389,10 +10381,10 @@
       <c r="F264" s="4">
         <v>10000</v>
       </c>
-      <c r="G264" s="14">
-        <v>50</v>
-      </c>
-      <c r="H264" s="15" t="s">
+      <c r="G264">
+        <v>500</v>
+      </c>
+      <c r="H264" s="14" t="s">
         <v>701</v>
       </c>
     </row>
@@ -10415,10 +10407,10 @@
       <c r="F265" s="4">
         <v>10000</v>
       </c>
-      <c r="G265" s="14">
-        <v>32</v>
-      </c>
-      <c r="H265" s="15" t="s">
+      <c r="G265">
+        <v>320</v>
+      </c>
+      <c r="H265" s="14" t="s">
         <v>702</v>
       </c>
     </row>
@@ -10441,10 +10433,10 @@
       <c r="F266" s="4">
         <v>10000</v>
       </c>
-      <c r="G266" s="14">
-        <v>36</v>
-      </c>
-      <c r="H266" s="15" t="s">
+      <c r="G266">
+        <v>360</v>
+      </c>
+      <c r="H266" s="14" t="s">
         <v>703</v>
       </c>
     </row>
@@ -10467,10 +10459,10 @@
       <c r="F267" s="4">
         <v>10000</v>
       </c>
-      <c r="G267" s="14">
-        <v>40</v>
-      </c>
-      <c r="H267" s="15" t="s">
+      <c r="G267">
+        <v>400</v>
+      </c>
+      <c r="H267" s="14" t="s">
         <v>704</v>
       </c>
     </row>
@@ -10493,10 +10485,10 @@
       <c r="F268" s="4">
         <v>10000</v>
       </c>
-      <c r="G268" s="14">
-        <v>100</v>
-      </c>
-      <c r="H268" s="15" t="s">
+      <c r="G268">
+        <v>1000</v>
+      </c>
+      <c r="H268" s="14" t="s">
         <v>705</v>
       </c>
     </row>
@@ -10519,10 +10511,10 @@
       <c r="F269" s="4">
         <v>10000</v>
       </c>
-      <c r="G269" s="14">
-        <v>76</v>
-      </c>
-      <c r="H269" s="15" t="s">
+      <c r="G269">
+        <v>760</v>
+      </c>
+      <c r="H269" s="14" t="s">
         <v>706</v>
       </c>
     </row>
@@ -10545,10 +10537,10 @@
       <c r="F270" s="4">
         <v>10000</v>
       </c>
-      <c r="G270" s="14">
-        <v>50</v>
-      </c>
-      <c r="H270" s="15" t="s">
+      <c r="G270">
+        <v>500</v>
+      </c>
+      <c r="H270" s="14" t="s">
         <v>707</v>
       </c>
     </row>
@@ -10571,10 +10563,10 @@
       <c r="F271" s="4">
         <v>10000</v>
       </c>
-      <c r="G271" s="14">
-        <v>70</v>
-      </c>
-      <c r="H271" s="15" t="s">
+      <c r="G271">
+        <v>700</v>
+      </c>
+      <c r="H271" s="14" t="s">
         <v>708</v>
       </c>
     </row>
@@ -10597,10 +10589,10 @@
       <c r="F272" s="4">
         <v>10000</v>
       </c>
-      <c r="G272" s="14">
-        <v>85</v>
-      </c>
-      <c r="H272" s="15" t="s">
+      <c r="G272">
+        <v>850</v>
+      </c>
+      <c r="H272" s="14" t="s">
         <v>709</v>
       </c>
     </row>
@@ -10623,10 +10615,10 @@
       <c r="F273" s="4">
         <v>10000</v>
       </c>
-      <c r="G273" s="14">
-        <v>185</v>
-      </c>
-      <c r="H273" s="15" t="s">
+      <c r="G273">
+        <v>1850</v>
+      </c>
+      <c r="H273" s="14" t="s">
         <v>710</v>
       </c>
     </row>
@@ -10649,10 +10641,10 @@
       <c r="F274" s="4">
         <v>10000</v>
       </c>
-      <c r="G274" s="14">
-        <v>76</v>
-      </c>
-      <c r="H274" s="15" t="s">
+      <c r="G274">
+        <v>760</v>
+      </c>
+      <c r="H274" s="14" t="s">
         <v>711</v>
       </c>
     </row>
@@ -10675,10 +10667,10 @@
       <c r="F275" s="4">
         <v>10000</v>
       </c>
-      <c r="G275" s="14">
-        <v>90</v>
-      </c>
-      <c r="H275" s="15" t="s">
+      <c r="G275">
+        <v>900</v>
+      </c>
+      <c r="H275" s="14" t="s">
         <v>712</v>
       </c>
     </row>
@@ -10701,10 +10693,10 @@
       <c r="F276" s="4">
         <v>10000</v>
       </c>
-      <c r="G276" s="14">
-        <v>40</v>
-      </c>
-      <c r="H276" s="15" t="s">
+      <c r="G276">
+        <v>400</v>
+      </c>
+      <c r="H276" s="14" t="s">
         <v>713</v>
       </c>
     </row>
@@ -10727,10 +10719,10 @@
       <c r="F277" s="4">
         <v>10000</v>
       </c>
-      <c r="G277" s="14">
-        <v>40</v>
-      </c>
-      <c r="H277" s="15" t="s">
+      <c r="G277">
+        <v>400</v>
+      </c>
+      <c r="H277" s="14" t="s">
         <v>714</v>
       </c>
     </row>
@@ -10753,10 +10745,10 @@
       <c r="F278" s="4">
         <v>10000</v>
       </c>
-      <c r="G278" s="14">
-        <v>30</v>
-      </c>
-      <c r="H278" s="15" t="s">
+      <c r="G278">
+        <v>300</v>
+      </c>
+      <c r="H278" s="14" t="s">
         <v>715</v>
       </c>
     </row>
@@ -10779,10 +10771,10 @@
       <c r="F279" s="4">
         <v>10000</v>
       </c>
-      <c r="G279" s="14">
-        <v>70</v>
-      </c>
-      <c r="H279" s="15" t="s">
+      <c r="G279">
+        <v>700</v>
+      </c>
+      <c r="H279" s="14" t="s">
         <v>716</v>
       </c>
     </row>
@@ -10805,10 +10797,10 @@
       <c r="F280" s="4">
         <v>10000</v>
       </c>
-      <c r="G280" s="16">
-        <v>1200</v>
-      </c>
-      <c r="H280" s="15" t="s">
+      <c r="G280">
+        <v>12000</v>
+      </c>
+      <c r="H280" s="14" t="s">
         <v>717</v>
       </c>
     </row>
@@ -10831,10 +10823,10 @@
       <c r="F281" s="4">
         <v>10000</v>
       </c>
-      <c r="G281" s="14">
-        <v>120</v>
-      </c>
-      <c r="H281" s="15" t="s">
+      <c r="G281">
+        <v>1200</v>
+      </c>
+      <c r="H281" s="14" t="s">
         <v>718</v>
       </c>
     </row>
@@ -10857,10 +10849,10 @@
       <c r="F282" s="4">
         <v>10000</v>
       </c>
-      <c r="G282" s="14">
-        <v>20</v>
-      </c>
-      <c r="H282" s="15" t="s">
+      <c r="G282">
+        <v>200</v>
+      </c>
+      <c r="H282" s="14" t="s">
         <v>719</v>
       </c>
     </row>
@@ -10883,10 +10875,10 @@
       <c r="F283" s="4">
         <v>10000</v>
       </c>
-      <c r="G283" s="14">
-        <v>2</v>
-      </c>
-      <c r="H283" s="15" t="s">
+      <c r="G283">
+        <v>20</v>
+      </c>
+      <c r="H283" s="14" t="s">
         <v>720</v>
       </c>
     </row>
@@ -10909,10 +10901,10 @@
       <c r="F284" s="4">
         <v>10000</v>
       </c>
-      <c r="G284" s="14">
-        <v>80</v>
-      </c>
-      <c r="H284" s="15" t="s">
+      <c r="G284">
+        <v>800</v>
+      </c>
+      <c r="H284" s="14" t="s">
         <v>721</v>
       </c>
     </row>
@@ -10935,10 +10927,10 @@
       <c r="F285" s="4">
         <v>10000</v>
       </c>
-      <c r="G285" s="14">
-        <v>70</v>
-      </c>
-      <c r="H285" s="15" t="s">
+      <c r="G285">
+        <v>700</v>
+      </c>
+      <c r="H285" s="14" t="s">
         <v>722</v>
       </c>
     </row>
@@ -10961,10 +10953,10 @@
       <c r="F286" s="4">
         <v>10000</v>
       </c>
-      <c r="G286" s="14">
-        <v>100</v>
-      </c>
-      <c r="H286" s="15" t="s">
+      <c r="G286">
+        <v>1000</v>
+      </c>
+      <c r="H286" s="14" t="s">
         <v>723</v>
       </c>
     </row>
@@ -10987,10 +10979,10 @@
       <c r="F287" s="4">
         <v>10000</v>
       </c>
-      <c r="G287" s="14">
-        <v>2</v>
-      </c>
-      <c r="H287" s="15" t="s">
+      <c r="G287">
+        <v>20</v>
+      </c>
+      <c r="H287" s="14" t="s">
         <v>724</v>
       </c>
     </row>
@@ -11013,10 +11005,10 @@
       <c r="F288" s="4">
         <v>10000</v>
       </c>
-      <c r="G288" s="14">
-        <v>50</v>
-      </c>
-      <c r="H288" s="15" t="s">
+      <c r="G288">
+        <v>500</v>
+      </c>
+      <c r="H288" s="14" t="s">
         <v>725</v>
       </c>
     </row>
@@ -11039,10 +11031,10 @@
       <c r="F289" s="4">
         <v>10000</v>
       </c>
-      <c r="G289" s="14">
-        <v>30</v>
-      </c>
-      <c r="H289" s="15" t="s">
+      <c r="G289">
+        <v>300</v>
+      </c>
+      <c r="H289" s="14" t="s">
         <v>726</v>
       </c>
     </row>
@@ -11065,10 +11057,10 @@
       <c r="F290" s="4">
         <v>10000</v>
       </c>
-      <c r="G290" s="14">
-        <v>110</v>
-      </c>
-      <c r="H290" s="15" t="s">
+      <c r="G290">
+        <v>1100</v>
+      </c>
+      <c r="H290" s="14" t="s">
         <v>727</v>
       </c>
     </row>
@@ -11091,10 +11083,10 @@
       <c r="F291" s="4">
         <v>10000</v>
       </c>
-      <c r="G291" s="14">
-        <v>5</v>
-      </c>
-      <c r="H291" s="15" t="s">
+      <c r="G291">
+        <v>50</v>
+      </c>
+      <c r="H291" s="14" t="s">
         <v>728</v>
       </c>
     </row>
@@ -11117,10 +11109,10 @@
       <c r="F292" s="4">
         <v>10000</v>
       </c>
-      <c r="G292" s="14">
-        <v>35</v>
-      </c>
-      <c r="H292" s="15" t="s">
+      <c r="G292">
+        <v>350</v>
+      </c>
+      <c r="H292" s="14" t="s">
         <v>729</v>
       </c>
     </row>
@@ -11143,10 +11135,10 @@
       <c r="F293" s="4">
         <v>10000</v>
       </c>
-      <c r="G293" s="14">
-        <v>35</v>
-      </c>
-      <c r="H293" s="15" t="s">
+      <c r="G293">
+        <v>350</v>
+      </c>
+      <c r="H293" s="14" t="s">
         <v>730</v>
       </c>
     </row>
@@ -11169,10 +11161,10 @@
       <c r="F294" s="4">
         <v>10000</v>
       </c>
-      <c r="G294" s="14">
-        <v>100</v>
-      </c>
-      <c r="H294" s="15" t="s">
+      <c r="G294">
+        <v>1000</v>
+      </c>
+      <c r="H294" s="14" t="s">
         <v>731</v>
       </c>
     </row>
@@ -11195,10 +11187,10 @@
       <c r="F295" s="4">
         <v>10000</v>
       </c>
-      <c r="G295" s="14">
-        <v>400</v>
-      </c>
-      <c r="H295" s="15" t="s">
+      <c r="G295">
+        <v>4000</v>
+      </c>
+      <c r="H295" s="14" t="s">
         <v>732</v>
       </c>
     </row>
@@ -11221,10 +11213,10 @@
       <c r="F296" s="4">
         <v>10000</v>
       </c>
-      <c r="G296" s="14">
-        <v>420</v>
-      </c>
-      <c r="H296" s="15" t="s">
+      <c r="G296">
+        <v>4200</v>
+      </c>
+      <c r="H296" s="14" t="s">
         <v>733</v>
       </c>
     </row>
@@ -11247,10 +11239,10 @@
       <c r="F297" s="4">
         <v>10000</v>
       </c>
-      <c r="G297" s="14">
-        <v>30</v>
-      </c>
-      <c r="H297" s="15" t="s">
+      <c r="G297">
+        <v>300</v>
+      </c>
+      <c r="H297" s="14" t="s">
         <v>734</v>
       </c>
     </row>
@@ -11273,10 +11265,10 @@
       <c r="F298" s="4">
         <v>10000</v>
       </c>
-      <c r="G298" s="14">
-        <v>20</v>
-      </c>
-      <c r="H298" s="15" t="s">
+      <c r="G298">
+        <v>200</v>
+      </c>
+      <c r="H298" s="14" t="s">
         <v>735</v>
       </c>
     </row>
@@ -11299,10 +11291,10 @@
       <c r="F299" s="4">
         <v>10000</v>
       </c>
-      <c r="G299" s="14">
-        <v>30</v>
-      </c>
-      <c r="H299" s="15" t="s">
+      <c r="G299">
+        <v>300</v>
+      </c>
+      <c r="H299" s="14" t="s">
         <v>736</v>
       </c>
     </row>
@@ -11325,10 +11317,10 @@
       <c r="F300" s="4">
         <v>10000</v>
       </c>
-      <c r="G300" s="14">
-        <v>10</v>
-      </c>
-      <c r="H300" s="15" t="s">
+      <c r="G300">
+        <v>100</v>
+      </c>
+      <c r="H300" s="14" t="s">
         <v>737</v>
       </c>
     </row>
@@ -11351,10 +11343,10 @@
       <c r="F301" s="4">
         <v>10000</v>
       </c>
-      <c r="G301" s="14">
-        <v>100</v>
-      </c>
-      <c r="H301" s="15" t="s">
+      <c r="G301">
+        <v>1000</v>
+      </c>
+      <c r="H301" s="14" t="s">
         <v>738</v>
       </c>
     </row>
@@ -11377,10 +11369,10 @@
       <c r="F302" s="4">
         <v>10000</v>
       </c>
-      <c r="G302" s="14">
-        <v>10</v>
-      </c>
-      <c r="H302" s="15" t="s">
+      <c r="G302">
+        <v>100</v>
+      </c>
+      <c r="H302" s="14" t="s">
         <v>739</v>
       </c>
     </row>
@@ -11403,10 +11395,10 @@
       <c r="F303" s="4">
         <v>10000</v>
       </c>
-      <c r="G303" s="14">
-        <v>10</v>
-      </c>
-      <c r="H303" s="15" t="s">
+      <c r="G303">
+        <v>100</v>
+      </c>
+      <c r="H303" s="14" t="s">
         <v>740</v>
       </c>
     </row>
@@ -11429,10 +11421,10 @@
       <c r="F304" s="4">
         <v>10000</v>
       </c>
-      <c r="G304" s="14">
-        <v>10</v>
-      </c>
-      <c r="H304" s="15" t="s">
+      <c r="G304">
+        <v>100</v>
+      </c>
+      <c r="H304" s="14" t="s">
         <v>741</v>
       </c>
     </row>
@@ -11455,10 +11447,10 @@
       <c r="F305" s="4">
         <v>10000</v>
       </c>
-      <c r="G305" s="14">
-        <v>5</v>
-      </c>
-      <c r="H305" s="15" t="s">
+      <c r="G305">
+        <v>50</v>
+      </c>
+      <c r="H305" s="14" t="s">
         <v>742</v>
       </c>
     </row>
@@ -11481,10 +11473,10 @@
       <c r="F306" s="4">
         <v>10000</v>
       </c>
-      <c r="G306" s="14">
-        <v>110</v>
-      </c>
-      <c r="H306" s="15" t="s">
+      <c r="G306">
+        <v>1100</v>
+      </c>
+      <c r="H306" s="14" t="s">
         <v>743</v>
       </c>
     </row>
@@ -11507,10 +11499,10 @@
       <c r="F307" s="4">
         <v>10000</v>
       </c>
-      <c r="G307" s="14">
-        <v>6</v>
-      </c>
-      <c r="H307" s="15" t="s">
+      <c r="G307">
+        <v>60</v>
+      </c>
+      <c r="H307" s="14" t="s">
         <v>744</v>
       </c>
     </row>
@@ -11533,10 +11525,10 @@
       <c r="F308" s="4">
         <v>10000</v>
       </c>
-      <c r="G308" s="14">
-        <v>70</v>
-      </c>
-      <c r="H308" s="15" t="s">
+      <c r="G308">
+        <v>700</v>
+      </c>
+      <c r="H308" s="14" t="s">
         <v>745</v>
       </c>
     </row>
@@ -11559,10 +11551,10 @@
       <c r="F309" s="4">
         <v>10000</v>
       </c>
-      <c r="G309" s="14">
-        <v>70</v>
-      </c>
-      <c r="H309" s="15" t="s">
+      <c r="G309">
+        <v>700</v>
+      </c>
+      <c r="H309" s="14" t="s">
         <v>746</v>
       </c>
     </row>
@@ -11585,10 +11577,10 @@
       <c r="F310" s="4">
         <v>10000</v>
       </c>
-      <c r="G310" s="14">
-        <v>200</v>
-      </c>
-      <c r="H310" s="15" t="s">
+      <c r="G310">
+        <v>2000</v>
+      </c>
+      <c r="H310" s="14" t="s">
         <v>747</v>
       </c>
     </row>
@@ -11611,10 +11603,10 @@
       <c r="F311" s="4">
         <v>10000</v>
       </c>
-      <c r="G311" s="14">
-        <v>300</v>
-      </c>
-      <c r="H311" s="15" t="s">
+      <c r="G311">
+        <v>3000</v>
+      </c>
+      <c r="H311" s="14" t="s">
         <v>748</v>
       </c>
     </row>
@@ -11637,10 +11629,10 @@
       <c r="F312" s="4">
         <v>10000</v>
       </c>
-      <c r="G312" s="14">
-        <v>260</v>
-      </c>
-      <c r="H312" s="15" t="s">
+      <c r="G312">
+        <v>2600</v>
+      </c>
+      <c r="H312" s="14" t="s">
         <v>749</v>
       </c>
     </row>
@@ -11663,10 +11655,10 @@
       <c r="F313" s="4">
         <v>10000</v>
       </c>
-      <c r="G313" s="14">
-        <v>140</v>
-      </c>
-      <c r="H313" s="15" t="s">
+      <c r="G313">
+        <v>1400</v>
+      </c>
+      <c r="H313" s="14" t="s">
         <v>750</v>
       </c>
     </row>
@@ -11689,10 +11681,10 @@
       <c r="F314" s="4">
         <v>10000</v>
       </c>
-      <c r="G314" s="14">
-        <v>6</v>
-      </c>
-      <c r="H314" s="15" t="s">
+      <c r="G314">
+        <v>60</v>
+      </c>
+      <c r="H314" s="14" t="s">
         <v>751</v>
       </c>
     </row>
@@ -11715,10 +11707,10 @@
       <c r="F315" s="4">
         <v>10000</v>
       </c>
-      <c r="G315" s="14">
-        <v>22</v>
-      </c>
-      <c r="H315" s="15" t="s">
+      <c r="G315">
+        <v>220</v>
+      </c>
+      <c r="H315" s="14" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11741,10 +11733,10 @@
       <c r="F316" s="4">
         <v>10000</v>
       </c>
-      <c r="G316" s="14">
-        <v>60</v>
-      </c>
-      <c r="H316" s="15" t="s">
+      <c r="G316">
+        <v>600</v>
+      </c>
+      <c r="H316" s="14" t="s">
         <v>753</v>
       </c>
     </row>
@@ -11767,10 +11759,10 @@
       <c r="F317" s="4">
         <v>10000</v>
       </c>
-      <c r="G317" s="14">
-        <v>100</v>
-      </c>
-      <c r="H317" s="15" t="s">
+      <c r="G317">
+        <v>1000</v>
+      </c>
+      <c r="H317" s="14" t="s">
         <v>754</v>
       </c>
     </row>
@@ -11793,10 +11785,10 @@
       <c r="F318" s="4">
         <v>10000</v>
       </c>
-      <c r="G318" s="14">
-        <v>60</v>
-      </c>
-      <c r="H318" s="15" t="s">
+      <c r="G318">
+        <v>600</v>
+      </c>
+      <c r="H318" s="14" t="s">
         <v>755</v>
       </c>
     </row>
@@ -11819,10 +11811,10 @@
       <c r="F319" s="4">
         <v>10000</v>
       </c>
-      <c r="G319" s="14">
-        <v>90</v>
-      </c>
-      <c r="H319" s="15" t="s">
+      <c r="G319">
+        <v>900</v>
+      </c>
+      <c r="H319" s="14" t="s">
         <v>756</v>
       </c>
     </row>
@@ -11845,10 +11837,10 @@
       <c r="F320" s="4">
         <v>10000</v>
       </c>
-      <c r="G320" s="14">
-        <v>240</v>
-      </c>
-      <c r="H320" s="15" t="s">
+      <c r="G320">
+        <v>2400</v>
+      </c>
+      <c r="H320" s="14" t="s">
         <v>757</v>
       </c>
     </row>
@@ -11871,10 +11863,10 @@
       <c r="F321" s="4">
         <v>10000</v>
       </c>
-      <c r="G321" s="14">
-        <v>80</v>
-      </c>
-      <c r="H321" s="15" t="s">
+      <c r="G321">
+        <v>800</v>
+      </c>
+      <c r="H321" s="14" t="s">
         <v>758</v>
       </c>
     </row>
@@ -11897,10 +11889,10 @@
       <c r="F322" s="4">
         <v>10000</v>
       </c>
-      <c r="G322" s="14">
-        <v>150</v>
-      </c>
-      <c r="H322" s="15" t="s">
+      <c r="G322">
+        <v>1500</v>
+      </c>
+      <c r="H322" s="14" t="s">
         <v>759</v>
       </c>
     </row>
@@ -11923,10 +11915,10 @@
       <c r="F323" s="4">
         <v>10000</v>
       </c>
-      <c r="G323" s="14">
-        <v>2</v>
-      </c>
-      <c r="H323" s="15" t="s">
+      <c r="G323">
+        <v>20</v>
+      </c>
+      <c r="H323" s="14" t="s">
         <v>760</v>
       </c>
     </row>
@@ -11949,10 +11941,10 @@
       <c r="F324" s="4">
         <v>10000</v>
       </c>
-      <c r="G324" s="14">
-        <v>220</v>
-      </c>
-      <c r="H324" s="15" t="s">
+      <c r="G324">
+        <v>2200</v>
+      </c>
+      <c r="H324" s="14" t="s">
         <v>761</v>
       </c>
     </row>
@@ -11975,10 +11967,10 @@
       <c r="F325" s="4">
         <v>10000</v>
       </c>
-      <c r="G325" s="14">
-        <v>20</v>
-      </c>
-      <c r="H325" s="15" t="s">
+      <c r="G325">
+        <v>200</v>
+      </c>
+      <c r="H325" s="14" t="s">
         <v>762</v>
       </c>
     </row>
@@ -12001,10 +11993,10 @@
       <c r="F326" s="4">
         <v>10000</v>
       </c>
-      <c r="G326" s="14">
-        <v>20</v>
-      </c>
-      <c r="H326" s="15" t="s">
+      <c r="G326">
+        <v>200</v>
+      </c>
+      <c r="H326" s="14" t="s">
         <v>763</v>
       </c>
     </row>
@@ -12027,10 +12019,10 @@
       <c r="F327" s="4">
         <v>10000</v>
       </c>
-      <c r="G327" s="14">
-        <v>15</v>
-      </c>
-      <c r="H327" s="15" t="s">
+      <c r="G327">
+        <v>150</v>
+      </c>
+      <c r="H327" s="14" t="s">
         <v>764</v>
       </c>
     </row>
@@ -12053,10 +12045,10 @@
       <c r="F328" s="4">
         <v>10000</v>
       </c>
-      <c r="G328" s="14">
-        <v>10</v>
-      </c>
-      <c r="H328" s="15" t="s">
+      <c r="G328">
+        <v>100</v>
+      </c>
+      <c r="H328" s="14" t="s">
         <v>765</v>
       </c>
     </row>
@@ -12079,10 +12071,10 @@
       <c r="F329" s="4">
         <v>10000</v>
       </c>
-      <c r="G329" s="14">
-        <v>20</v>
-      </c>
-      <c r="H329" s="15" t="s">
+      <c r="G329">
+        <v>200</v>
+      </c>
+      <c r="H329" s="14" t="s">
         <v>766</v>
       </c>
     </row>
@@ -12105,10 +12097,10 @@
       <c r="F330" s="4">
         <v>10000</v>
       </c>
-      <c r="G330" s="14">
-        <v>24</v>
-      </c>
-      <c r="H330" s="15" t="s">
+      <c r="G330">
+        <v>240</v>
+      </c>
+      <c r="H330" s="14" t="s">
         <v>767</v>
       </c>
     </row>
@@ -12131,10 +12123,10 @@
       <c r="F331" s="4">
         <v>10000</v>
       </c>
-      <c r="G331" s="14">
-        <v>30</v>
-      </c>
-      <c r="H331" s="15" t="s">
+      <c r="G331">
+        <v>300</v>
+      </c>
+      <c r="H331" s="14" t="s">
         <v>768</v>
       </c>
     </row>
@@ -12157,10 +12149,10 @@
       <c r="F332" s="4">
         <v>10000</v>
       </c>
-      <c r="G332" s="14">
-        <v>152</v>
-      </c>
-      <c r="H332" s="15" t="s">
+      <c r="G332">
+        <v>1520</v>
+      </c>
+      <c r="H332" s="14" t="s">
         <v>769</v>
       </c>
     </row>
@@ -12183,10 +12175,10 @@
       <c r="F333" s="4">
         <v>10000</v>
       </c>
-      <c r="G333" s="14">
-        <v>120</v>
-      </c>
-      <c r="H333" s="15" t="s">
+      <c r="G333">
+        <v>1200</v>
+      </c>
+      <c r="H333" s="14" t="s">
         <v>770</v>
       </c>
     </row>
@@ -12209,10 +12201,10 @@
       <c r="F334" s="4">
         <v>10000</v>
       </c>
-      <c r="G334" s="14">
-        <v>15</v>
-      </c>
-      <c r="H334" s="15" t="s">
+      <c r="G334">
+        <v>150</v>
+      </c>
+      <c r="H334" s="14" t="s">
         <v>771</v>
       </c>
     </row>
@@ -12235,10 +12227,10 @@
       <c r="F335" s="4">
         <v>10000</v>
       </c>
-      <c r="G335" s="14">
-        <v>80</v>
-      </c>
-      <c r="H335" s="15" t="s">
+      <c r="G335">
+        <v>800</v>
+      </c>
+      <c r="H335" s="14" t="s">
         <v>772</v>
       </c>
     </row>
@@ -12261,10 +12253,10 @@
       <c r="F336" s="4">
         <v>10000</v>
       </c>
-      <c r="G336" s="14">
-        <v>80</v>
-      </c>
-      <c r="H336" s="15" t="s">
+      <c r="G336">
+        <v>800</v>
+      </c>
+      <c r="H336" s="14" t="s">
         <v>773</v>
       </c>
     </row>
@@ -12287,10 +12279,10 @@
       <c r="F337" s="4">
         <v>10000</v>
       </c>
-      <c r="G337" s="14">
-        <v>140</v>
-      </c>
-      <c r="H337" s="15" t="s">
+      <c r="G337">
+        <v>1400</v>
+      </c>
+      <c r="H337" s="14" t="s">
         <v>774</v>
       </c>
     </row>
@@ -12313,10 +12305,10 @@
       <c r="F338" s="4">
         <v>10000</v>
       </c>
-      <c r="G338" s="14">
-        <v>1</v>
-      </c>
-      <c r="H338" s="15" t="s">
+      <c r="G338">
+        <v>10</v>
+      </c>
+      <c r="H338" s="14" t="s">
         <v>775</v>
       </c>
     </row>
@@ -12339,10 +12331,10 @@
       <c r="F339" s="4">
         <v>10000</v>
       </c>
-      <c r="G339" s="14">
-        <v>1</v>
-      </c>
-      <c r="H339" s="15" t="s">
+      <c r="G339">
+        <v>10</v>
+      </c>
+      <c r="H339" s="14" t="s">
         <v>776</v>
       </c>
     </row>
@@ -12365,10 +12357,10 @@
       <c r="F340" s="4">
         <v>10000</v>
       </c>
-      <c r="G340" s="14">
-        <v>10</v>
-      </c>
-      <c r="H340" s="15" t="s">
+      <c r="G340">
+        <v>100</v>
+      </c>
+      <c r="H340" s="14" t="s">
         <v>777</v>
       </c>
     </row>
@@ -12391,10 +12383,10 @@
       <c r="F341" s="4">
         <v>10000</v>
       </c>
-      <c r="G341" s="14">
-        <v>20</v>
-      </c>
-      <c r="H341" s="15" t="s">
+      <c r="G341">
+        <v>200</v>
+      </c>
+      <c r="H341" s="14" t="s">
         <v>778</v>
       </c>
     </row>
@@ -12417,10 +12409,10 @@
       <c r="F342" s="4">
         <v>10000</v>
       </c>
-      <c r="G342" s="14">
-        <v>40</v>
-      </c>
-      <c r="H342" s="15" t="s">
+      <c r="G342">
+        <v>400</v>
+      </c>
+      <c r="H342" s="14" t="s">
         <v>779</v>
       </c>
     </row>
@@ -12443,10 +12435,10 @@
       <c r="F343" s="4">
         <v>10000</v>
       </c>
-      <c r="G343" s="14">
-        <v>60</v>
-      </c>
-      <c r="H343" s="15" t="s">
+      <c r="G343">
+        <v>600</v>
+      </c>
+      <c r="H343" s="14" t="s">
         <v>780</v>
       </c>
     </row>
@@ -12469,10 +12461,10 @@
       <c r="F344" s="4">
         <v>10000</v>
       </c>
-      <c r="G344" s="14">
-        <v>60</v>
-      </c>
-      <c r="H344" s="15" t="s">
+      <c r="G344">
+        <v>600</v>
+      </c>
+      <c r="H344" s="14" t="s">
         <v>781</v>
       </c>
     </row>
@@ -12495,10 +12487,10 @@
       <c r="F345" s="4">
         <v>10000</v>
       </c>
-      <c r="G345" s="14">
-        <v>220</v>
-      </c>
-      <c r="H345" s="15" t="s">
+      <c r="G345">
+        <v>2200</v>
+      </c>
+      <c r="H345" s="14" t="s">
         <v>782</v>
       </c>
     </row>
@@ -12521,10 +12513,10 @@
       <c r="F346" s="4">
         <v>10000</v>
       </c>
-      <c r="G346" s="14">
-        <v>152</v>
-      </c>
-      <c r="H346" s="15" t="s">
+      <c r="G346">
+        <v>1520</v>
+      </c>
+      <c r="H346" s="14" t="s">
         <v>783</v>
       </c>
     </row>
@@ -12547,10 +12539,10 @@
       <c r="F347" s="4">
         <v>10000</v>
       </c>
-      <c r="G347" s="14">
-        <v>50</v>
-      </c>
-      <c r="H347" s="15" t="s">
+      <c r="G347">
+        <v>500</v>
+      </c>
+      <c r="H347" s="14" t="s">
         <v>784</v>
       </c>
     </row>
@@ -12573,10 +12565,10 @@
       <c r="F348" s="4">
         <v>10000</v>
       </c>
-      <c r="G348" s="14">
-        <v>30</v>
-      </c>
-      <c r="H348" s="15" t="s">
+      <c r="G348">
+        <v>300</v>
+      </c>
+      <c r="H348" s="14" t="s">
         <v>785</v>
       </c>
     </row>
@@ -12599,10 +12591,10 @@
       <c r="F349" s="4">
         <v>10000</v>
       </c>
-      <c r="G349" s="14">
-        <v>20</v>
-      </c>
-      <c r="H349" s="15" t="s">
+      <c r="G349">
+        <v>200</v>
+      </c>
+      <c r="H349" s="14" t="s">
         <v>786</v>
       </c>
     </row>
@@ -12625,10 +12617,10 @@
       <c r="F350" s="4">
         <v>10000</v>
       </c>
-      <c r="G350" s="14">
-        <v>55</v>
-      </c>
-      <c r="H350" s="15" t="s">
+      <c r="G350">
+        <v>550</v>
+      </c>
+      <c r="H350" s="14" t="s">
         <v>787</v>
       </c>
     </row>
@@ -12651,10 +12643,10 @@
       <c r="F351" s="4">
         <v>10000</v>
       </c>
-      <c r="G351" s="14">
-        <v>55</v>
-      </c>
-      <c r="H351" s="15" t="s">
+      <c r="G351">
+        <v>550</v>
+      </c>
+      <c r="H351" s="14" t="s">
         <v>788</v>
       </c>
     </row>
@@ -12677,10 +12669,10 @@
       <c r="F352" s="4">
         <v>10000</v>
       </c>
-      <c r="G352" s="14">
-        <v>100</v>
-      </c>
-      <c r="H352" s="15" t="s">
+      <c r="G352">
+        <v>1000</v>
+      </c>
+      <c r="H352" s="14" t="s">
         <v>789</v>
       </c>
     </row>
@@ -12703,10 +12695,10 @@
       <c r="F353" s="4">
         <v>10000</v>
       </c>
-      <c r="G353" s="14">
-        <v>60</v>
-      </c>
-      <c r="H353" s="15" t="s">
+      <c r="G353">
+        <v>600</v>
+      </c>
+      <c r="H353" s="14" t="s">
         <v>790</v>
       </c>
     </row>
@@ -12729,10 +12721,10 @@
       <c r="F354" s="4">
         <v>10000</v>
       </c>
-      <c r="G354" s="14">
-        <v>15</v>
-      </c>
-      <c r="H354" s="15" t="s">
+      <c r="G354">
+        <v>150</v>
+      </c>
+      <c r="H354" s="14" t="s">
         <v>791</v>
       </c>
     </row>
@@ -12755,10 +12747,10 @@
       <c r="F355" s="4">
         <v>10000</v>
       </c>
-      <c r="G355" s="14">
-        <v>25</v>
-      </c>
-      <c r="H355" s="15" t="s">
+      <c r="G355">
+        <v>250</v>
+      </c>
+      <c r="H355" s="14" t="s">
         <v>792</v>
       </c>
     </row>
@@ -12781,10 +12773,10 @@
       <c r="F356" s="4">
         <v>10000</v>
       </c>
-      <c r="G356" s="14">
-        <v>40</v>
-      </c>
-      <c r="H356" s="15" t="s">
+      <c r="G356">
+        <v>400</v>
+      </c>
+      <c r="H356" s="14" t="s">
         <v>793</v>
       </c>
     </row>
@@ -12807,10 +12799,10 @@
       <c r="F357" s="4">
         <v>10000</v>
       </c>
-      <c r="G357" s="14">
-        <v>20</v>
-      </c>
-      <c r="H357" s="15" t="s">
+      <c r="G357">
+        <v>200</v>
+      </c>
+      <c r="H357" s="14" t="s">
         <v>794</v>
       </c>
     </row>
@@ -12833,10 +12825,10 @@
       <c r="F358" s="4">
         <v>10000</v>
       </c>
-      <c r="G358" s="14">
-        <v>30</v>
-      </c>
-      <c r="H358" s="15" t="s">
+      <c r="G358">
+        <v>300</v>
+      </c>
+      <c r="H358" s="14" t="s">
         <v>795</v>
       </c>
     </row>
@@ -12859,10 +12851,10 @@
       <c r="F359" s="4">
         <v>10000</v>
       </c>
-      <c r="G359" s="14">
-        <v>96</v>
-      </c>
-      <c r="H359" s="15" t="s">
+      <c r="G359">
+        <v>960</v>
+      </c>
+      <c r="H359" s="14" t="s">
         <v>796</v>
       </c>
     </row>
@@ -12885,10 +12877,10 @@
       <c r="F360" s="4">
         <v>10000</v>
       </c>
-      <c r="G360" s="14">
-        <v>100</v>
-      </c>
-      <c r="H360" s="15" t="s">
+      <c r="G360">
+        <v>1000</v>
+      </c>
+      <c r="H360" s="14" t="s">
         <v>797</v>
       </c>
     </row>
@@ -12911,10 +12903,10 @@
       <c r="F361" s="4">
         <v>10000</v>
       </c>
-      <c r="G361" s="14">
-        <v>60</v>
-      </c>
-      <c r="H361" s="15" t="s">
+      <c r="G361">
+        <v>600</v>
+      </c>
+      <c r="H361" s="14" t="s">
         <v>798</v>
       </c>
     </row>
@@ -12937,10 +12929,10 @@
       <c r="F362" s="4">
         <v>10000</v>
       </c>
-      <c r="G362" s="14">
-        <v>70</v>
-      </c>
-      <c r="H362" s="15" t="s">
+      <c r="G362">
+        <v>700</v>
+      </c>
+      <c r="H362" s="14" t="s">
         <v>799</v>
       </c>
     </row>
@@ -12963,10 +12955,10 @@
       <c r="F363" s="4">
         <v>10000</v>
       </c>
-      <c r="G363" s="14">
-        <v>110</v>
-      </c>
-      <c r="H363" s="15" t="s">
+      <c r="G363">
+        <v>1100</v>
+      </c>
+      <c r="H363" s="14" t="s">
         <v>800</v>
       </c>
     </row>
@@ -12989,10 +12981,10 @@
       <c r="F364" s="4">
         <v>10000</v>
       </c>
-      <c r="G364" s="14">
-        <v>140</v>
-      </c>
-      <c r="H364" s="15" t="s">
+      <c r="G364">
+        <v>1400</v>
+      </c>
+      <c r="H364" s="14" t="s">
         <v>801</v>
       </c>
     </row>
@@ -13015,10 +13007,10 @@
       <c r="F365" s="4">
         <v>10000</v>
       </c>
-      <c r="G365" s="14">
-        <v>110</v>
-      </c>
-      <c r="H365" s="15" t="s">
+      <c r="G365">
+        <v>1100</v>
+      </c>
+      <c r="H365" s="14" t="s">
         <v>802</v>
       </c>
     </row>
@@ -13041,10 +13033,10 @@
       <c r="F366" s="4">
         <v>10000</v>
       </c>
-      <c r="G366" s="14">
-        <v>98</v>
-      </c>
-      <c r="H366" s="15" t="s">
+      <c r="G366">
+        <v>980</v>
+      </c>
+      <c r="H366" s="14" t="s">
         <v>803</v>
       </c>
     </row>
@@ -13067,10 +13059,10 @@
       <c r="F367" s="4">
         <v>10000</v>
       </c>
-      <c r="G367" s="14">
-        <v>3</v>
-      </c>
-      <c r="H367" s="15" t="s">
+      <c r="G367">
+        <v>30</v>
+      </c>
+      <c r="H367" s="14" t="s">
         <v>804</v>
       </c>
     </row>
@@ -13093,10 +13085,10 @@
       <c r="F368" s="4">
         <v>10000</v>
       </c>
-      <c r="G368" s="14">
-        <v>120</v>
-      </c>
-      <c r="H368" s="15" t="s">
+      <c r="G368">
+        <v>1200</v>
+      </c>
+      <c r="H368" s="14" t="s">
         <v>805</v>
       </c>
     </row>
@@ -13119,10 +13111,10 @@
       <c r="F369" s="4">
         <v>10000</v>
       </c>
-      <c r="G369" s="14">
-        <v>20</v>
-      </c>
-      <c r="H369" s="15" t="s">
+      <c r="G369">
+        <v>200</v>
+      </c>
+      <c r="H369" s="14" t="s">
         <v>806</v>
       </c>
     </row>
@@ -13145,10 +13137,10 @@
       <c r="F370" s="4">
         <v>10000</v>
       </c>
-      <c r="G370" s="14">
-        <v>18</v>
-      </c>
-      <c r="H370" s="15" t="s">
+      <c r="G370">
+        <v>180</v>
+      </c>
+      <c r="H370" s="14" t="s">
         <v>807</v>
       </c>
     </row>
@@ -13171,10 +13163,10 @@
       <c r="F371" s="4">
         <v>10000</v>
       </c>
-      <c r="G371" s="14">
-        <v>1</v>
-      </c>
-      <c r="H371" s="15" t="s">
+      <c r="G371">
+        <v>10</v>
+      </c>
+      <c r="H371" s="14" t="s">
         <v>808</v>
       </c>
     </row>
@@ -13197,10 +13189,10 @@
       <c r="F372" s="4">
         <v>10000</v>
       </c>
-      <c r="G372" s="14">
-        <v>10</v>
-      </c>
-      <c r="H372" s="15" t="s">
+      <c r="G372">
+        <v>100</v>
+      </c>
+      <c r="H372" s="14" t="s">
         <v>809</v>
       </c>
     </row>
@@ -13223,10 +13215,10 @@
       <c r="F373" s="4">
         <v>10000</v>
       </c>
-      <c r="G373" s="14">
-        <v>10</v>
-      </c>
-      <c r="H373" s="15" t="s">
+      <c r="G373">
+        <v>100</v>
+      </c>
+      <c r="H373" s="14" t="s">
         <v>810</v>
       </c>
     </row>
@@ -13249,10 +13241,10 @@
       <c r="F374" s="4">
         <v>10000</v>
       </c>
-      <c r="G374" s="14">
-        <v>3</v>
-      </c>
-      <c r="H374" s="15" t="s">
+      <c r="G374">
+        <v>30</v>
+      </c>
+      <c r="H374" s="14" t="s">
         <v>811</v>
       </c>
     </row>
@@ -13275,10 +13267,10 @@
       <c r="F375" s="4">
         <v>10000</v>
       </c>
-      <c r="G375" s="14">
-        <v>95</v>
-      </c>
-      <c r="H375" s="15" t="s">
+      <c r="G375">
+        <v>950</v>
+      </c>
+      <c r="H375" s="14" t="s">
         <v>812</v>
       </c>
     </row>
@@ -13301,10 +13293,10 @@
       <c r="F376" s="4">
         <v>10000</v>
       </c>
-      <c r="G376" s="14">
-        <v>100</v>
-      </c>
-      <c r="H376" s="15" t="s">
+      <c r="G376">
+        <v>1000</v>
+      </c>
+      <c r="H376" s="14" t="s">
         <v>813</v>
       </c>
     </row>
@@ -13327,10 +13319,10 @@
       <c r="F377" s="4">
         <v>10000</v>
       </c>
-      <c r="G377" s="14">
-        <v>71</v>
-      </c>
-      <c r="H377" s="15" t="s">
+      <c r="G377">
+        <v>710</v>
+      </c>
+      <c r="H377" s="14" t="s">
         <v>814</v>
       </c>
     </row>
@@ -13353,10 +13345,10 @@
       <c r="F378" s="4">
         <v>10000</v>
       </c>
-      <c r="G378" s="14">
-        <v>85</v>
-      </c>
-      <c r="H378" s="15" t="s">
+      <c r="G378">
+        <v>850</v>
+      </c>
+      <c r="H378" s="14" t="s">
         <v>815</v>
       </c>
     </row>
@@ -13379,10 +13371,10 @@
       <c r="F379" s="4">
         <v>10000</v>
       </c>
-      <c r="G379" s="14">
-        <v>100</v>
-      </c>
-      <c r="H379" s="15" t="s">
+      <c r="G379">
+        <v>1000</v>
+      </c>
+      <c r="H379" s="14" t="s">
         <v>816</v>
       </c>
     </row>
@@ -13405,10 +13397,10 @@
       <c r="F380" s="4">
         <v>10000</v>
       </c>
-      <c r="G380" s="14">
-        <v>130</v>
-      </c>
-      <c r="H380" s="15" t="s">
+      <c r="G380">
+        <v>1300</v>
+      </c>
+      <c r="H380" s="14" t="s">
         <v>817</v>
       </c>
     </row>
@@ -13431,10 +13423,10 @@
       <c r="F381" s="4">
         <v>10000</v>
       </c>
-      <c r="G381" s="14">
-        <v>34</v>
-      </c>
-      <c r="H381" s="15" t="s">
+      <c r="G381">
+        <v>340</v>
+      </c>
+      <c r="H381" s="14" t="s">
         <v>818</v>
       </c>
     </row>
@@ -13457,10 +13449,10 @@
       <c r="F382" s="4">
         <v>10000</v>
       </c>
-      <c r="G382" s="14">
-        <v>3</v>
-      </c>
-      <c r="H382" s="15" t="s">
+      <c r="G382">
+        <v>30</v>
+      </c>
+      <c r="H382" s="14" t="s">
         <v>819</v>
       </c>
     </row>
@@ -13483,10 +13475,10 @@
       <c r="F383" s="4">
         <v>10000</v>
       </c>
-      <c r="G383" s="14">
-        <v>26</v>
-      </c>
-      <c r="H383" s="15" t="s">
+      <c r="G383">
+        <v>260</v>
+      </c>
+      <c r="H383" s="14" t="s">
         <v>820</v>
       </c>
     </row>
@@ -13509,10 +13501,10 @@
       <c r="F384" s="4">
         <v>10000</v>
       </c>
-      <c r="G384" s="14">
-        <v>320</v>
-      </c>
-      <c r="H384" s="15" t="s">
+      <c r="G384">
+        <v>3200</v>
+      </c>
+      <c r="H384" s="14" t="s">
         <v>821</v>
       </c>
     </row>
@@ -13535,10 +13527,10 @@
       <c r="F385" s="4">
         <v>10000</v>
       </c>
-      <c r="G385" s="14">
-        <v>10</v>
-      </c>
-      <c r="H385" s="15" t="s">
+      <c r="G385">
+        <v>100</v>
+      </c>
+      <c r="H385" s="14" t="s">
         <v>822</v>
       </c>
     </row>
@@ -13561,10 +13553,10 @@
       <c r="F386" s="4">
         <v>10000</v>
       </c>
-      <c r="G386" s="14">
-        <v>83</v>
-      </c>
-      <c r="H386" s="15" t="s">
+      <c r="G386">
+        <v>830</v>
+      </c>
+      <c r="H386" s="14" t="s">
         <v>823</v>
       </c>
     </row>
@@ -13587,10 +13579,10 @@
       <c r="F387" s="4">
         <v>10000</v>
       </c>
-      <c r="G387" s="14">
-        <v>100</v>
-      </c>
-      <c r="H387" s="15" t="s">
+      <c r="G387">
+        <v>1000</v>
+      </c>
+      <c r="H387" s="14" t="s">
         <v>824</v>
       </c>
     </row>
@@ -13613,10 +13605,10 @@
       <c r="F388" s="4">
         <v>10000</v>
       </c>
-      <c r="G388" s="14">
-        <v>700</v>
-      </c>
-      <c r="H388" s="15" t="s">
+      <c r="G388">
+        <v>7000</v>
+      </c>
+      <c r="H388" s="14" t="s">
         <v>825</v>
       </c>
     </row>
@@ -13639,10 +13631,10 @@
       <c r="F389" s="4">
         <v>10000</v>
       </c>
-      <c r="G389" s="14">
-        <v>50</v>
-      </c>
-      <c r="H389" s="15" t="s">
+      <c r="G389">
+        <v>500</v>
+      </c>
+      <c r="H389" s="14" t="s">
         <v>826</v>
       </c>
     </row>
@@ -13665,10 +13657,10 @@
       <c r="F390" s="4">
         <v>10000</v>
       </c>
-      <c r="G390" s="14">
-        <v>80</v>
-      </c>
-      <c r="H390" s="15" t="s">
+      <c r="G390">
+        <v>800</v>
+      </c>
+      <c r="H390" s="14" t="s">
         <v>827</v>
       </c>
     </row>
@@ -13691,10 +13683,10 @@
       <c r="F391" s="4">
         <v>10000</v>
       </c>
-      <c r="G391" s="14">
-        <v>40</v>
-      </c>
-      <c r="H391" s="15" t="s">
+      <c r="G391">
+        <v>400</v>
+      </c>
+      <c r="H391" s="14" t="s">
         <v>828</v>
       </c>
     </row>
@@ -13717,10 +13709,10 @@
       <c r="F392" s="4">
         <v>10000</v>
       </c>
-      <c r="G392" s="14">
-        <v>200</v>
-      </c>
-      <c r="H392" s="15" t="s">
+      <c r="G392">
+        <v>2000</v>
+      </c>
+      <c r="H392" s="14" t="s">
         <v>829</v>
       </c>
     </row>
@@ -13743,10 +13735,10 @@
       <c r="F393" s="4">
         <v>10000</v>
       </c>
-      <c r="G393" s="14">
-        <v>10</v>
-      </c>
-      <c r="H393" s="15" t="s">
+      <c r="G393">
+        <v>100</v>
+      </c>
+      <c r="H393" s="14" t="s">
         <v>830</v>
       </c>
     </row>
@@ -13769,10 +13761,10 @@
       <c r="F394" s="4">
         <v>10000</v>
       </c>
-      <c r="G394" s="14">
-        <v>300</v>
-      </c>
-      <c r="H394" s="15" t="s">
+      <c r="G394">
+        <v>3000</v>
+      </c>
+      <c r="H394" s="14" t="s">
         <v>831</v>
       </c>
     </row>
@@ -13795,10 +13787,10 @@
       <c r="F395" s="4">
         <v>10000</v>
       </c>
-      <c r="G395" s="14">
-        <v>370</v>
-      </c>
-      <c r="H395" s="15" t="s">
+      <c r="G395">
+        <v>3700</v>
+      </c>
+      <c r="H395" s="14" t="s">
         <v>832</v>
       </c>
     </row>
@@ -13821,10 +13813,10 @@
       <c r="F396" s="4">
         <v>10000</v>
       </c>
-      <c r="G396" s="14">
-        <v>370</v>
-      </c>
-      <c r="H396" s="15" t="s">
+      <c r="G396">
+        <v>3700</v>
+      </c>
+      <c r="H396" s="14" t="s">
         <v>833</v>
       </c>
     </row>
@@ -13847,10 +13839,10 @@
       <c r="F397" s="4">
         <v>10000</v>
       </c>
-      <c r="G397" s="14">
-        <v>10</v>
-      </c>
-      <c r="H397" s="15" t="s">
+      <c r="G397">
+        <v>100</v>
+      </c>
+      <c r="H397" s="14" t="s">
         <v>834</v>
       </c>
     </row>
@@ -13873,10 +13865,10 @@
       <c r="F398" s="4">
         <v>10000</v>
       </c>
-      <c r="G398" s="14">
-        <v>8</v>
-      </c>
-      <c r="H398" s="15" t="s">
+      <c r="G398">
+        <v>80</v>
+      </c>
+      <c r="H398" s="14" t="s">
         <v>835</v>
       </c>
     </row>
@@ -13899,10 +13891,10 @@
       <c r="F399" s="4">
         <v>10000</v>
       </c>
-      <c r="G399" s="14">
-        <v>300</v>
-      </c>
-      <c r="H399" s="15" t="s">
+      <c r="G399">
+        <v>3000</v>
+      </c>
+      <c r="H399" s="14" t="s">
         <v>836</v>
       </c>
     </row>
@@ -13925,10 +13917,10 @@
       <c r="F400" s="4">
         <v>10000</v>
       </c>
-      <c r="G400" s="14">
-        <v>10</v>
-      </c>
-      <c r="H400" s="15" t="s">
+      <c r="G400">
+        <v>100</v>
+      </c>
+      <c r="H400" s="14" t="s">
         <v>837</v>
       </c>
     </row>
@@ -13951,10 +13943,10 @@
       <c r="F401" s="4">
         <v>10000</v>
       </c>
-      <c r="G401" s="14">
-        <v>50</v>
-      </c>
-      <c r="H401" s="15" t="s">
+      <c r="G401">
+        <v>500</v>
+      </c>
+      <c r="H401" s="14" t="s">
         <v>838</v>
       </c>
     </row>
@@ -13977,10 +13969,10 @@
       <c r="F402" s="4">
         <v>10000</v>
       </c>
-      <c r="G402" s="14">
-        <v>63</v>
-      </c>
-      <c r="H402" s="15" t="s">
+      <c r="G402">
+        <v>630</v>
+      </c>
+      <c r="H402" s="14" t="s">
         <v>839</v>
       </c>
     </row>
@@ -14003,10 +13995,10 @@
       <c r="F403" s="4">
         <v>10000</v>
       </c>
-      <c r="G403" s="14">
-        <v>100</v>
-      </c>
-      <c r="H403" s="15" t="s">
+      <c r="G403">
+        <v>1000</v>
+      </c>
+      <c r="H403" s="14" t="s">
         <v>840</v>
       </c>
     </row>
@@ -14029,10 +14021,10 @@
       <c r="F404" s="4">
         <v>10000</v>
       </c>
-      <c r="G404" s="14">
-        <v>50</v>
-      </c>
-      <c r="H404" s="15" t="s">
+      <c r="G404">
+        <v>500</v>
+      </c>
+      <c r="H404" s="14" t="s">
         <v>841</v>
       </c>
     </row>
@@ -14055,10 +14047,10 @@
       <c r="F405" s="4">
         <v>10000</v>
       </c>
-      <c r="G405" s="14">
-        <v>5</v>
-      </c>
-      <c r="H405" s="15" t="s">
+      <c r="G405">
+        <v>50</v>
+      </c>
+      <c r="H405" s="14" t="s">
         <v>842</v>
       </c>
     </row>
@@ -14081,10 +14073,10 @@
       <c r="F406" s="4">
         <v>10000</v>
       </c>
-      <c r="G406" s="14">
-        <v>20</v>
-      </c>
-      <c r="H406" s="15" t="s">
+      <c r="G406">
+        <v>200</v>
+      </c>
+      <c r="H406" s="14" t="s">
         <v>843</v>
       </c>
     </row>
@@ -14107,10 +14099,10 @@
       <c r="F407" s="4">
         <v>10000</v>
       </c>
-      <c r="G407" s="14">
-        <v>110</v>
-      </c>
-      <c r="H407" s="15" t="s">
+      <c r="G407">
+        <v>1100</v>
+      </c>
+      <c r="H407" s="14" t="s">
         <v>844</v>
       </c>
     </row>
@@ -14133,10 +14125,10 @@
       <c r="F408" s="4">
         <v>10000</v>
       </c>
-      <c r="G408" s="14">
-        <v>55</v>
-      </c>
-      <c r="H408" s="15" t="s">
+      <c r="G408">
+        <v>550</v>
+      </c>
+      <c r="H408" s="14" t="s">
         <v>845</v>
       </c>
     </row>
@@ -14159,10 +14151,10 @@
       <c r="F409" s="4">
         <v>10000</v>
       </c>
-      <c r="G409" s="14">
-        <v>80</v>
-      </c>
-      <c r="H409" s="15" t="s">
+      <c r="G409">
+        <v>800</v>
+      </c>
+      <c r="H409" s="14" t="s">
         <v>846</v>
       </c>
     </row>
@@ -14185,10 +14177,10 @@
       <c r="F410" s="4">
         <v>10000</v>
       </c>
-      <c r="G410" s="14">
-        <v>40</v>
-      </c>
-      <c r="H410" s="15" t="s">
+      <c r="G410">
+        <v>400</v>
+      </c>
+      <c r="H410" s="14" t="s">
         <v>847</v>
       </c>
     </row>
@@ -14211,10 +14203,10 @@
       <c r="F411" s="4">
         <v>10000</v>
       </c>
-      <c r="G411" s="14">
-        <v>200</v>
-      </c>
-      <c r="H411" s="15" t="s">
+      <c r="G411">
+        <v>2000</v>
+      </c>
+      <c r="H411" s="14" t="s">
         <v>848</v>
       </c>
     </row>
@@ -14237,10 +14229,10 @@
       <c r="F412" s="4">
         <v>10000</v>
       </c>
-      <c r="G412" s="16">
-        <v>2000</v>
-      </c>
-      <c r="H412" s="15" t="s">
+      <c r="G412">
+        <v>20000</v>
+      </c>
+      <c r="H412" s="14" t="s">
         <v>849</v>
       </c>
     </row>
@@ -14263,10 +14255,10 @@
       <c r="F413" s="4">
         <v>10000</v>
       </c>
-      <c r="G413" s="14">
-        <v>50</v>
-      </c>
-      <c r="H413" s="15" t="s">
+      <c r="G413">
+        <v>500</v>
+      </c>
+      <c r="H413" s="14" t="s">
         <v>850</v>
       </c>
     </row>
@@ -14289,10 +14281,10 @@
       <c r="F414" s="4">
         <v>10000</v>
       </c>
-      <c r="G414" s="14">
-        <v>170</v>
-      </c>
-      <c r="H414" s="15" t="s">
+      <c r="G414">
+        <v>1700</v>
+      </c>
+      <c r="H414" s="14" t="s">
         <v>851</v>
       </c>
     </row>
@@ -14315,10 +14307,10 @@
       <c r="F415" s="4">
         <v>10000</v>
       </c>
-      <c r="G415" s="14">
-        <v>200</v>
-      </c>
-      <c r="H415" s="15" t="s">
+      <c r="G415">
+        <v>2000</v>
+      </c>
+      <c r="H415" s="14" t="s">
         <v>852</v>
       </c>
     </row>
@@ -14341,10 +14333,10 @@
       <c r="F416" s="4">
         <v>10000</v>
       </c>
-      <c r="G416" s="14">
-        <v>40</v>
-      </c>
-      <c r="H416" s="15" t="s">
+      <c r="G416">
+        <v>400</v>
+      </c>
+      <c r="H416" s="14" t="s">
         <v>853</v>
       </c>
     </row>
@@ -14367,10 +14359,10 @@
       <c r="F417" s="4">
         <v>10000</v>
       </c>
-      <c r="G417" s="14">
-        <v>91</v>
-      </c>
-      <c r="H417" s="15" t="s">
+      <c r="G417">
+        <v>910</v>
+      </c>
+      <c r="H417" s="14" t="s">
         <v>854</v>
       </c>
     </row>
@@ -14393,10 +14385,10 @@
       <c r="F418" s="4">
         <v>10000</v>
       </c>
-      <c r="G418" s="14">
-        <v>70</v>
-      </c>
-      <c r="H418" s="15" t="s">
+      <c r="G418">
+        <v>700</v>
+      </c>
+      <c r="H418" s="14" t="s">
         <v>855</v>
       </c>
     </row>
@@ -14419,10 +14411,10 @@
       <c r="F419" s="4">
         <v>10000</v>
       </c>
-      <c r="G419" s="14">
-        <v>91</v>
-      </c>
-      <c r="H419" s="15" t="s">
+      <c r="G419">
+        <v>910</v>
+      </c>
+      <c r="H419" s="14" t="s">
         <v>856</v>
       </c>
     </row>
@@ -14445,10 +14437,10 @@
       <c r="F420" s="4">
         <v>10000</v>
       </c>
-      <c r="G420" s="14">
-        <v>91</v>
-      </c>
-      <c r="H420" s="15" t="s">
+      <c r="G420">
+        <v>910</v>
+      </c>
+      <c r="H420" s="14" t="s">
         <v>857</v>
       </c>
     </row>
@@ -14471,10 +14463,10 @@
       <c r="F421" s="4">
         <v>10000</v>
       </c>
-      <c r="G421" s="14">
-        <v>91</v>
-      </c>
-      <c r="H421" s="15" t="s">
+      <c r="G421">
+        <v>910</v>
+      </c>
+      <c r="H421" s="14" t="s">
         <v>858</v>
       </c>
     </row>
@@ -14497,10 +14489,10 @@
       <c r="F422" s="4">
         <v>10000</v>
       </c>
-      <c r="G422" s="14">
-        <v>10</v>
-      </c>
-      <c r="H422" s="15" t="s">
+      <c r="G422">
+        <v>100</v>
+      </c>
+      <c r="H422" s="14" t="s">
         <v>859</v>
       </c>
     </row>
@@ -14523,10 +14515,10 @@
       <c r="F423" s="4">
         <v>10000</v>
       </c>
-      <c r="G423" s="14">
-        <v>5</v>
-      </c>
-      <c r="H423" s="15" t="s">
+      <c r="G423">
+        <v>50</v>
+      </c>
+      <c r="H423" s="14" t="s">
         <v>860</v>
       </c>
     </row>
@@ -14549,10 +14541,10 @@
       <c r="F424" s="4">
         <v>10000</v>
       </c>
-      <c r="G424" s="14">
-        <v>10</v>
-      </c>
-      <c r="H424" s="15" t="s">
+      <c r="G424">
+        <v>100</v>
+      </c>
+      <c r="H424" s="14" t="s">
         <v>861</v>
       </c>
     </row>
@@ -14575,10 +14567,10 @@
       <c r="F425" s="4">
         <v>10000</v>
       </c>
-      <c r="G425" s="14">
-        <v>25</v>
-      </c>
-      <c r="H425" s="15" t="s">
+      <c r="G425">
+        <v>250</v>
+      </c>
+      <c r="H425" s="14" t="s">
         <v>862</v>
       </c>
     </row>
@@ -14601,10 +14593,10 @@
       <c r="F426" s="4">
         <v>10000</v>
       </c>
-      <c r="G426" s="14">
-        <v>2</v>
-      </c>
-      <c r="H426" s="15" t="s">
+      <c r="G426">
+        <v>20</v>
+      </c>
+      <c r="H426" s="14" t="s">
         <v>863</v>
       </c>
     </row>
@@ -14627,10 +14619,10 @@
       <c r="F427" s="4">
         <v>10000</v>
       </c>
-      <c r="G427" s="14">
-        <v>60</v>
-      </c>
-      <c r="H427" s="15" t="s">
+      <c r="G427">
+        <v>600</v>
+      </c>
+      <c r="H427" s="14" t="s">
         <v>864</v>
       </c>
     </row>
